--- a/data/amazon.xlsx
+++ b/data/amazon.xlsx
@@ -11,14 +11,14 @@
     <sheet name="SKU_ASIN" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$D$797</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$D$795</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="1808">
   <si>
     <t>SKU</t>
   </si>
@@ -4323,9 +4323,6 @@
   </si>
   <si>
     <t>B00H0L3G8U</t>
-  </si>
-  <si>
-    <t>Vendor SKU</t>
   </si>
   <si>
     <t>DS-766001</t>
@@ -5451,7 +5448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5476,12 +5473,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -5538,7 +5529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5583,9 +5574,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5924,10 +5913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A778" workbookViewId="0">
+      <selection activeCell="A799" sqref="A799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14428,1858 +14417,1850 @@
       <c r="B612" s="11"/>
       <c r="C612" s="11"/>
       <c r="D612" s="20" t="s">
-        <v>2</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A613" s="21" t="s">
-        <v>1436</v>
+      <c r="A613" s="20" t="s">
+        <v>1437</v>
       </c>
       <c r="B613" s="11"/>
       <c r="C613" s="11"/>
-      <c r="D613" s="21" t="s">
-        <v>1437</v>
+      <c r="D613" s="20" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A614" s="21" t="s">
-        <v>1438</v>
+      <c r="A614" s="20" t="s">
+        <v>1439</v>
       </c>
       <c r="B614" s="11"/>
       <c r="C614" s="11"/>
-      <c r="D614" s="21" t="s">
-        <v>1439</v>
+      <c r="D614" s="20" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A615" s="21" t="s">
-        <v>1440</v>
+      <c r="A615" s="20" t="s">
+        <v>1441</v>
       </c>
       <c r="B615" s="11"/>
       <c r="C615" s="11"/>
-      <c r="D615" s="21" t="s">
-        <v>1441</v>
+      <c r="D615" s="20" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A616" s="21" t="s">
-        <v>1442</v>
+      <c r="A616" s="20" t="s">
+        <v>1443</v>
       </c>
       <c r="B616" s="11"/>
       <c r="C616" s="11"/>
-      <c r="D616" s="21" t="s">
-        <v>1443</v>
+      <c r="D616" s="20" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A617" s="21" t="s">
-        <v>1444</v>
+      <c r="A617" s="20" t="s">
+        <v>1445</v>
       </c>
       <c r="B617" s="11"/>
       <c r="C617" s="11"/>
-      <c r="D617" s="21" t="s">
-        <v>1445</v>
+      <c r="D617" s="20" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A618" s="21" t="s">
-        <v>1446</v>
+      <c r="A618" s="20" t="s">
+        <v>1447</v>
       </c>
       <c r="B618" s="11"/>
       <c r="C618" s="11"/>
-      <c r="D618" s="21" t="s">
-        <v>1447</v>
+      <c r="D618" s="20" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A619" s="21" t="s">
-        <v>1448</v>
+      <c r="A619" s="20" t="s">
+        <v>1449</v>
       </c>
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
-      <c r="D619" s="21" t="s">
-        <v>1449</v>
+      <c r="D619" s="20" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A620" s="21" t="s">
-        <v>1450</v>
+      <c r="A620" s="20" t="s">
+        <v>1451</v>
       </c>
       <c r="B620" s="11"/>
       <c r="C620" s="11"/>
-      <c r="D620" s="21" t="s">
-        <v>1451</v>
+      <c r="D620" s="20" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A621" s="21" t="s">
-        <v>1452</v>
+      <c r="A621" s="20" t="s">
+        <v>1453</v>
       </c>
       <c r="B621" s="11"/>
       <c r="C621" s="11"/>
-      <c r="D621" s="21" t="s">
-        <v>1453</v>
+      <c r="D621" s="20" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A622" s="21" t="s">
-        <v>1454</v>
+      <c r="A622" s="20" t="s">
+        <v>1455</v>
       </c>
       <c r="B622" s="11"/>
       <c r="C622" s="11"/>
-      <c r="D622" s="21" t="s">
-        <v>1455</v>
+      <c r="D622" s="20" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A623" s="21" t="s">
-        <v>1456</v>
+      <c r="A623" s="20" t="s">
+        <v>1457</v>
       </c>
       <c r="B623" s="11"/>
       <c r="C623" s="11"/>
-      <c r="D623" s="21" t="s">
-        <v>1457</v>
+      <c r="D623" s="20" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A624" s="21" t="s">
-        <v>1458</v>
+      <c r="A624" s="20" t="s">
+        <v>1459</v>
       </c>
       <c r="B624" s="11"/>
       <c r="C624" s="11"/>
-      <c r="D624" s="21" t="s">
-        <v>1459</v>
+      <c r="D624" s="20" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A625" s="21" t="s">
-        <v>1460</v>
+      <c r="A625" s="20" t="s">
+        <v>1461</v>
       </c>
       <c r="B625" s="11"/>
       <c r="C625" s="11"/>
-      <c r="D625" s="21" t="s">
-        <v>1461</v>
+      <c r="D625" s="20" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A626" s="21" t="s">
-        <v>1462</v>
+      <c r="A626" s="20" t="s">
+        <v>1463</v>
       </c>
       <c r="B626" s="11"/>
       <c r="C626" s="11"/>
-      <c r="D626" s="21" t="s">
-        <v>1463</v>
+      <c r="D626" s="20" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A627" s="21" t="s">
-        <v>1464</v>
+      <c r="A627" s="20" t="s">
+        <v>1465</v>
       </c>
       <c r="B627" s="11"/>
       <c r="C627" s="11"/>
-      <c r="D627" s="21" t="s">
-        <v>1465</v>
+      <c r="D627" s="20" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A628" s="21" t="s">
-        <v>1466</v>
+      <c r="A628" s="20" t="s">
+        <v>1467</v>
       </c>
       <c r="B628" s="11"/>
       <c r="C628" s="11"/>
-      <c r="D628" s="21" t="s">
-        <v>1467</v>
+      <c r="D628" s="20" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A629" s="21" t="s">
-        <v>1468</v>
+      <c r="A629" s="20" t="s">
+        <v>1469</v>
       </c>
       <c r="B629" s="11"/>
       <c r="C629" s="11"/>
-      <c r="D629" s="21" t="s">
-        <v>1469</v>
+      <c r="D629" s="20" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A630" s="21" t="s">
-        <v>1470</v>
+      <c r="A630" s="20" t="s">
+        <v>1471</v>
       </c>
       <c r="B630" s="11"/>
       <c r="C630" s="11"/>
-      <c r="D630" s="21" t="s">
-        <v>1471</v>
+      <c r="D630" s="20" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A631" s="21" t="s">
-        <v>1472</v>
+      <c r="A631" s="20" t="s">
+        <v>1473</v>
       </c>
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
-      <c r="D631" s="21" t="s">
-        <v>1473</v>
+      <c r="D631" s="20" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A632" s="21" t="s">
-        <v>1474</v>
+      <c r="A632" s="20" t="s">
+        <v>1475</v>
       </c>
       <c r="B632" s="11"/>
       <c r="C632" s="11"/>
-      <c r="D632" s="21" t="s">
-        <v>1475</v>
+      <c r="D632" s="20" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A633" s="21" t="s">
-        <v>1476</v>
+      <c r="A633" s="20" t="s">
+        <v>1477</v>
       </c>
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
-      <c r="D633" s="21" t="s">
-        <v>1477</v>
+      <c r="D633" s="20" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A634" s="21" t="s">
-        <v>1478</v>
+      <c r="A634" s="20" t="s">
+        <v>1479</v>
       </c>
       <c r="B634" s="11"/>
       <c r="C634" s="11"/>
-      <c r="D634" s="21" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="22" t="s">
-        <v>1435</v>
+      <c r="D634" s="20" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" s="20" t="s">
+        <v>1481</v>
       </c>
       <c r="B635" s="11"/>
       <c r="C635" s="11"/>
-      <c r="D635" s="22" t="s">
-        <v>2</v>
+      <c r="D635" s="20" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A636" s="21" t="s">
-        <v>1480</v>
+      <c r="A636" s="20" t="s">
+        <v>1483</v>
       </c>
       <c r="B636" s="11"/>
       <c r="C636" s="11"/>
-      <c r="D636" s="21" t="s">
-        <v>1481</v>
+      <c r="D636" s="20" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A637" s="21" t="s">
-        <v>1482</v>
+      <c r="A637" s="20" t="s">
+        <v>1485</v>
       </c>
       <c r="B637" s="11"/>
       <c r="C637" s="11"/>
-      <c r="D637" s="21" t="s">
-        <v>1483</v>
+      <c r="D637" s="20" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A638" s="21" t="s">
-        <v>1484</v>
+      <c r="A638" s="20" t="s">
+        <v>1487</v>
       </c>
       <c r="B638" s="11"/>
       <c r="C638" s="11"/>
-      <c r="D638" s="21" t="s">
-        <v>1485</v>
+      <c r="D638" s="20" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A639" s="21" t="s">
-        <v>1486</v>
+      <c r="A639" s="20" t="s">
+        <v>1489</v>
       </c>
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
-      <c r="D639" s="21" t="s">
-        <v>1487</v>
+      <c r="D639" s="20" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A640" s="21" t="s">
-        <v>1488</v>
+      <c r="A640" s="20" t="s">
+        <v>1491</v>
       </c>
       <c r="B640" s="11"/>
       <c r="C640" s="11"/>
-      <c r="D640" s="21" t="s">
-        <v>1489</v>
+      <c r="D640" s="20" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A641" s="21" t="s">
-        <v>1490</v>
+      <c r="A641" s="20" t="s">
+        <v>1493</v>
       </c>
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
-      <c r="D641" s="21" t="s">
-        <v>1491</v>
+      <c r="D641" s="20" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A642" s="21" t="s">
-        <v>1492</v>
+      <c r="A642" s="20" t="s">
+        <v>1495</v>
       </c>
       <c r="B642" s="11"/>
       <c r="C642" s="11"/>
-      <c r="D642" s="21" t="s">
-        <v>1493</v>
+      <c r="D642" s="20" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A643" s="21" t="s">
-        <v>1494</v>
+      <c r="A643" s="20" t="s">
+        <v>1497</v>
       </c>
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
-      <c r="D643" s="21" t="s">
-        <v>1495</v>
+      <c r="D643" s="20" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A644" s="21" t="s">
-        <v>1496</v>
+      <c r="A644" s="20" t="s">
+        <v>1499</v>
       </c>
       <c r="B644" s="11"/>
       <c r="C644" s="11"/>
-      <c r="D644" s="21" t="s">
-        <v>1497</v>
+      <c r="D644" s="20" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A645" s="21" t="s">
-        <v>1498</v>
+      <c r="A645" s="20" t="s">
+        <v>1501</v>
       </c>
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
-      <c r="D645" s="21" t="s">
-        <v>1499</v>
+      <c r="D645" s="20" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A646" s="21" t="s">
-        <v>1500</v>
+      <c r="A646" s="20" t="s">
+        <v>1503</v>
       </c>
       <c r="B646" s="11"/>
       <c r="C646" s="11"/>
-      <c r="D646" s="21" t="s">
-        <v>1501</v>
+      <c r="D646" s="20" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A647" s="21" t="s">
-        <v>1502</v>
+      <c r="A647" s="20" t="s">
+        <v>1505</v>
       </c>
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
-      <c r="D647" s="21" t="s">
-        <v>1503</v>
+      <c r="D647" s="20" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A648" s="21" t="s">
-        <v>1504</v>
+      <c r="A648" s="20" t="s">
+        <v>1507</v>
       </c>
       <c r="B648" s="11"/>
       <c r="C648" s="11"/>
-      <c r="D648" s="21" t="s">
-        <v>1505</v>
+      <c r="D648" s="20" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A649" s="21" t="s">
-        <v>1506</v>
+      <c r="A649" s="20" t="s">
+        <v>1509</v>
       </c>
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
-      <c r="D649" s="21" t="s">
-        <v>1507</v>
+      <c r="D649" s="20" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A650" s="21" t="s">
-        <v>1508</v>
+      <c r="A650" s="20" t="s">
+        <v>1511</v>
       </c>
       <c r="B650" s="11"/>
       <c r="C650" s="11"/>
-      <c r="D650" s="21" t="s">
-        <v>1509</v>
+      <c r="D650" s="20" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A651" s="21" t="s">
-        <v>1510</v>
+      <c r="A651" s="20" t="s">
+        <v>1513</v>
       </c>
       <c r="B651" s="11"/>
       <c r="C651" s="11"/>
-      <c r="D651" s="21" t="s">
-        <v>1511</v>
+      <c r="D651" s="20" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A652" s="21" t="s">
-        <v>1512</v>
+      <c r="A652" s="20" t="s">
+        <v>1515</v>
       </c>
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
-      <c r="D652" s="21" t="s">
-        <v>1513</v>
+      <c r="D652" s="20" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A653" s="21" t="s">
-        <v>1514</v>
+      <c r="A653" s="20" t="s">
+        <v>1517</v>
       </c>
       <c r="B653" s="11"/>
       <c r="C653" s="11"/>
-      <c r="D653" s="21" t="s">
-        <v>1515</v>
+      <c r="D653" s="20" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A654" s="21" t="s">
-        <v>1516</v>
+      <c r="A654" s="20" t="s">
+        <v>1519</v>
       </c>
       <c r="B654" s="11"/>
       <c r="C654" s="11"/>
-      <c r="D654" s="21" t="s">
-        <v>1517</v>
+      <c r="D654" s="20" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A655" s="21" t="s">
-        <v>1518</v>
+      <c r="A655" s="20" t="s">
+        <v>1521</v>
       </c>
       <c r="B655" s="11"/>
       <c r="C655" s="11"/>
-      <c r="D655" s="21" t="s">
-        <v>1519</v>
+      <c r="D655" s="20" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A656" s="21" t="s">
-        <v>1520</v>
+      <c r="A656" s="20" t="s">
+        <v>1523</v>
       </c>
       <c r="B656" s="11"/>
       <c r="C656" s="11"/>
-      <c r="D656" s="21" t="s">
-        <v>1521</v>
+      <c r="D656" s="20" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A657" s="21" t="s">
-        <v>1522</v>
+      <c r="A657" s="20" t="s">
+        <v>1525</v>
       </c>
       <c r="B657" s="11"/>
       <c r="C657" s="11"/>
-      <c r="D657" s="21" t="s">
-        <v>1523</v>
+      <c r="D657" s="20" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A658" s="21" t="s">
-        <v>1524</v>
+      <c r="A658" s="20" t="s">
+        <v>1527</v>
       </c>
       <c r="B658" s="11"/>
       <c r="C658" s="11"/>
-      <c r="D658" s="21" t="s">
-        <v>1525</v>
+      <c r="D658" s="20" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A659" s="21" t="s">
-        <v>1526</v>
+      <c r="A659" s="20" t="s">
+        <v>1529</v>
       </c>
       <c r="B659" s="11"/>
       <c r="C659" s="11"/>
-      <c r="D659" s="21" t="s">
-        <v>1527</v>
+      <c r="D659" s="20" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A660" s="21" t="s">
-        <v>1528</v>
+      <c r="A660" s="20" t="s">
+        <v>1531</v>
       </c>
       <c r="B660" s="11"/>
       <c r="C660" s="11"/>
-      <c r="D660" s="21" t="s">
-        <v>1529</v>
+      <c r="D660" s="20" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A661" s="21" t="s">
-        <v>1530</v>
+      <c r="A661" s="20" t="s">
+        <v>1533</v>
       </c>
       <c r="B661" s="11"/>
       <c r="C661" s="11"/>
-      <c r="D661" s="21" t="s">
-        <v>1531</v>
+      <c r="D661" s="20" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A662" s="21" t="s">
-        <v>1532</v>
+      <c r="A662" s="20" t="s">
+        <v>1535</v>
       </c>
       <c r="B662" s="11"/>
       <c r="C662" s="11"/>
-      <c r="D662" s="21" t="s">
-        <v>1533</v>
+      <c r="D662" s="20" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A663" s="21" t="s">
-        <v>1534</v>
+      <c r="A663" s="20" t="s">
+        <v>1537</v>
       </c>
       <c r="B663" s="11"/>
       <c r="C663" s="11"/>
-      <c r="D663" s="21" t="s">
-        <v>1535</v>
+      <c r="D663" s="20" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A664" s="21" t="s">
-        <v>1536</v>
+      <c r="A664" s="20" t="s">
+        <v>1539</v>
       </c>
       <c r="B664" s="11"/>
       <c r="C664" s="11"/>
-      <c r="D664" s="21" t="s">
-        <v>1537</v>
+      <c r="D664" s="20" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A665" s="21" t="s">
-        <v>1538</v>
+      <c r="A665" s="20" t="s">
+        <v>1541</v>
       </c>
       <c r="B665" s="11"/>
       <c r="C665" s="11"/>
-      <c r="D665" s="21" t="s">
-        <v>1539</v>
+      <c r="D665" s="20" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A666" s="21" t="s">
-        <v>1540</v>
+      <c r="A666" s="20" t="s">
+        <v>1543</v>
       </c>
       <c r="B666" s="11"/>
       <c r="C666" s="11"/>
-      <c r="D666" s="21" t="s">
-        <v>1541</v>
+      <c r="D666" s="20" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A667" s="21" t="s">
-        <v>1542</v>
+      <c r="A667" s="20" t="s">
+        <v>1545</v>
       </c>
       <c r="B667" s="11"/>
       <c r="C667" s="11"/>
-      <c r="D667" s="21" t="s">
-        <v>1543</v>
+      <c r="D667" s="20" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A668" s="21" t="s">
-        <v>1544</v>
+      <c r="A668" s="20" t="s">
+        <v>1547</v>
       </c>
       <c r="B668" s="11"/>
       <c r="C668" s="11"/>
-      <c r="D668" s="21" t="s">
-        <v>1545</v>
+      <c r="D668" s="20" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A669" s="21" t="s">
-        <v>1546</v>
+      <c r="A669" s="20" t="s">
+        <v>1549</v>
       </c>
       <c r="B669" s="11"/>
       <c r="C669" s="11"/>
-      <c r="D669" s="21" t="s">
-        <v>1547</v>
+      <c r="D669" s="20" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A670" s="21" t="s">
-        <v>1548</v>
+      <c r="A670" s="20" t="s">
+        <v>1551</v>
       </c>
       <c r="B670" s="11"/>
       <c r="C670" s="11"/>
-      <c r="D670" s="21" t="s">
-        <v>1549</v>
+      <c r="D670" s="20" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A671" s="21" t="s">
-        <v>1550</v>
+      <c r="A671" s="20" t="s">
+        <v>1553</v>
       </c>
       <c r="B671" s="11"/>
       <c r="C671" s="11"/>
-      <c r="D671" s="21" t="s">
-        <v>1551</v>
+      <c r="D671" s="20" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A672" s="21" t="s">
-        <v>1552</v>
+      <c r="A672" s="20" t="s">
+        <v>1555</v>
       </c>
       <c r="B672" s="11"/>
       <c r="C672" s="11"/>
-      <c r="D672" s="21" t="s">
-        <v>1553</v>
+      <c r="D672" s="20" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A673" s="21" t="s">
-        <v>1554</v>
+      <c r="A673" s="20" t="s">
+        <v>1557</v>
       </c>
       <c r="B673" s="11"/>
       <c r="C673" s="11"/>
-      <c r="D673" s="21" t="s">
-        <v>1555</v>
+      <c r="D673" s="20" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A674" s="21" t="s">
-        <v>1556</v>
+      <c r="A674" s="20" t="s">
+        <v>1559</v>
       </c>
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
-      <c r="D674" s="21" t="s">
-        <v>1557</v>
+      <c r="D674" s="20" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A675" s="21" t="s">
-        <v>1558</v>
+      <c r="A675" s="20" t="s">
+        <v>1561</v>
       </c>
       <c r="B675" s="11"/>
       <c r="C675" s="11"/>
-      <c r="D675" s="21" t="s">
-        <v>1559</v>
+      <c r="D675" s="20" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A676" s="21" t="s">
-        <v>1560</v>
+      <c r="A676" s="20" t="s">
+        <v>1563</v>
       </c>
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
-      <c r="D676" s="21" t="s">
-        <v>1561</v>
+      <c r="D676" s="20" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A677" s="21" t="s">
-        <v>1562</v>
+      <c r="A677" s="20" t="s">
+        <v>1565</v>
       </c>
       <c r="B677" s="11"/>
       <c r="C677" s="11"/>
-      <c r="D677" s="21" t="s">
-        <v>1563</v>
+      <c r="D677" s="20" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A678" s="21" t="s">
-        <v>1564</v>
+      <c r="A678" s="20" t="s">
+        <v>1567</v>
       </c>
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
-      <c r="D678" s="21" t="s">
-        <v>1565</v>
+      <c r="D678" s="20" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A679" s="21" t="s">
-        <v>1566</v>
+      <c r="A679" s="20" t="s">
+        <v>1569</v>
       </c>
       <c r="B679" s="11"/>
       <c r="C679" s="11"/>
-      <c r="D679" s="21" t="s">
-        <v>1567</v>
+      <c r="D679" s="20" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A680" s="21" t="s">
-        <v>1568</v>
+      <c r="A680" s="20" t="s">
+        <v>1571</v>
       </c>
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
-      <c r="D680" s="21" t="s">
-        <v>1569</v>
+      <c r="D680" s="20" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A681" s="21" t="s">
-        <v>1570</v>
+      <c r="A681" s="20" t="s">
+        <v>1573</v>
       </c>
       <c r="B681" s="11"/>
       <c r="C681" s="11"/>
-      <c r="D681" s="21" t="s">
-        <v>1571</v>
+      <c r="D681" s="20" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A682" s="21" t="s">
-        <v>1572</v>
+      <c r="A682" s="20" t="s">
+        <v>1575</v>
       </c>
       <c r="B682" s="11"/>
       <c r="C682" s="11"/>
-      <c r="D682" s="21" t="s">
-        <v>1573</v>
+      <c r="D682" s="20" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A683" s="21" t="s">
-        <v>1574</v>
+      <c r="A683" s="20" t="s">
+        <v>1577</v>
       </c>
       <c r="B683" s="11"/>
       <c r="C683" s="11"/>
-      <c r="D683" s="21" t="s">
-        <v>1575</v>
+      <c r="D683" s="20" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A684" s="21" t="s">
-        <v>1576</v>
+      <c r="A684" s="20" t="s">
+        <v>1579</v>
       </c>
       <c r="B684" s="11"/>
       <c r="C684" s="11"/>
-      <c r="D684" s="21" t="s">
-        <v>1577</v>
+      <c r="D684" s="20" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A685" s="21" t="s">
-        <v>1578</v>
+      <c r="A685" s="20" t="s">
+        <v>1581</v>
       </c>
       <c r="B685" s="11"/>
       <c r="C685" s="11"/>
-      <c r="D685" s="21" t="s">
-        <v>1579</v>
+      <c r="D685" s="20" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A686" s="21" t="s">
-        <v>1580</v>
+      <c r="A686" s="20" t="s">
+        <v>1583</v>
       </c>
       <c r="B686" s="11"/>
       <c r="C686" s="11"/>
-      <c r="D686" s="21" t="s">
-        <v>1581</v>
+      <c r="D686" s="20" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A687" s="21" t="s">
-        <v>1582</v>
+      <c r="A687" s="20" t="s">
+        <v>1585</v>
       </c>
       <c r="B687" s="11"/>
       <c r="C687" s="11"/>
-      <c r="D687" s="21" t="s">
-        <v>1583</v>
+      <c r="D687" s="20" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="21" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
-      <c r="D688" s="21" t="s">
-        <v>1585</v>
+      <c r="D688" s="22" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="21" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B689" s="11"/>
       <c r="C689" s="11"/>
       <c r="D689" s="21" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A690" s="23" t="s">
-        <v>1588</v>
+      <c r="A690" s="21" t="s">
+        <v>1591</v>
       </c>
       <c r="B690" s="11"/>
       <c r="C690" s="11"/>
-      <c r="D690" s="24" t="s">
-        <v>1589</v>
+      <c r="D690" s="21" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A691" s="23" t="s">
-        <v>1590</v>
+      <c r="A691" s="21" t="s">
+        <v>1593</v>
       </c>
       <c r="B691" s="11"/>
       <c r="C691" s="11"/>
-      <c r="D691" s="23" t="s">
-        <v>1591</v>
+      <c r="D691" s="21" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A692" s="23" t="s">
-        <v>1592</v>
+      <c r="A692" s="21" t="s">
+        <v>1595</v>
       </c>
       <c r="B692" s="11"/>
       <c r="C692" s="11"/>
-      <c r="D692" s="23" t="s">
-        <v>1593</v>
+      <c r="D692" s="21" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A693" s="23" t="s">
-        <v>1594</v>
+      <c r="A693" s="21" t="s">
+        <v>1597</v>
       </c>
       <c r="B693" s="11"/>
       <c r="C693" s="11"/>
-      <c r="D693" s="23" t="s">
-        <v>1595</v>
+      <c r="D693" s="21" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A694" s="23" t="s">
-        <v>1596</v>
+      <c r="A694" s="21" t="s">
+        <v>1599</v>
       </c>
       <c r="B694" s="11"/>
       <c r="C694" s="11"/>
-      <c r="D694" s="23" t="s">
-        <v>1597</v>
+      <c r="D694" s="21" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A695" s="23" t="s">
-        <v>1598</v>
+      <c r="A695" s="21" t="s">
+        <v>1601</v>
       </c>
       <c r="B695" s="11"/>
       <c r="C695" s="11"/>
-      <c r="D695" s="23" t="s">
-        <v>1599</v>
+      <c r="D695" s="21" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A696" s="23" t="s">
-        <v>1600</v>
+      <c r="A696" s="21" t="s">
+        <v>1603</v>
       </c>
       <c r="B696" s="11"/>
       <c r="C696" s="11"/>
-      <c r="D696" s="23" t="s">
-        <v>1601</v>
+      <c r="D696" s="21" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A697" s="23" t="s">
-        <v>1602</v>
+      <c r="A697" s="21" t="s">
+        <v>1605</v>
       </c>
       <c r="B697" s="11"/>
       <c r="C697" s="11"/>
-      <c r="D697" s="23" t="s">
-        <v>1603</v>
+      <c r="D697" s="21" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A698" s="23" t="s">
-        <v>1604</v>
+      <c r="A698" s="21" t="s">
+        <v>1607</v>
       </c>
       <c r="B698" s="11"/>
       <c r="C698" s="11"/>
-      <c r="D698" s="23" t="s">
-        <v>1605</v>
+      <c r="D698" s="21" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A699" s="23" t="s">
-        <v>1606</v>
+      <c r="A699" s="21" t="s">
+        <v>1609</v>
       </c>
       <c r="B699" s="11"/>
       <c r="C699" s="11"/>
-      <c r="D699" s="23" t="s">
-        <v>1607</v>
+      <c r="D699" s="22" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A700" s="23" t="s">
-        <v>1608</v>
+      <c r="A700" s="21" t="s">
+        <v>1611</v>
       </c>
       <c r="B700" s="11"/>
       <c r="C700" s="11"/>
-      <c r="D700" s="23" t="s">
-        <v>1609</v>
+      <c r="D700" s="21" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A701" s="23" t="s">
-        <v>1610</v>
+      <c r="A701" s="21" t="s">
+        <v>1613</v>
       </c>
       <c r="B701" s="11"/>
       <c r="C701" s="11"/>
-      <c r="D701" s="24" t="s">
-        <v>1611</v>
+      <c r="D701" s="21" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A702" s="23" t="s">
-        <v>1612</v>
+      <c r="A702" s="21" t="s">
+        <v>1615</v>
       </c>
       <c r="B702" s="11"/>
       <c r="C702" s="11"/>
-      <c r="D702" s="23" t="s">
-        <v>1613</v>
+      <c r="D702" s="21" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A703" s="23" t="s">
-        <v>1614</v>
+      <c r="A703" s="21" t="s">
+        <v>1617</v>
       </c>
       <c r="B703" s="11"/>
       <c r="C703" s="11"/>
-      <c r="D703" s="23" t="s">
-        <v>1615</v>
+      <c r="D703" s="21" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A704" s="23" t="s">
-        <v>1616</v>
+      <c r="A704" s="21" t="s">
+        <v>1619</v>
       </c>
       <c r="B704" s="11"/>
       <c r="C704" s="11"/>
-      <c r="D704" s="23" t="s">
-        <v>1617</v>
+      <c r="D704" s="21" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A705" s="23" t="s">
-        <v>1618</v>
+      <c r="A705" s="21" t="s">
+        <v>1621</v>
       </c>
       <c r="B705" s="11"/>
       <c r="C705" s="11"/>
-      <c r="D705" s="23" t="s">
-        <v>1619</v>
+      <c r="D705" s="21" t="s">
+        <v>1622</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A706" s="23" t="s">
-        <v>1620</v>
+      <c r="A706" s="21" t="s">
+        <v>1623</v>
       </c>
       <c r="B706" s="11"/>
       <c r="C706" s="11"/>
-      <c r="D706" s="23" t="s">
-        <v>1621</v>
+      <c r="D706" s="22" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A707" s="23" t="s">
-        <v>1622</v>
+      <c r="A707" s="21" t="s">
+        <v>1625</v>
       </c>
       <c r="B707" s="11"/>
       <c r="C707" s="11"/>
-      <c r="D707" s="23" t="s">
-        <v>1623</v>
+      <c r="D707" s="22" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A708" s="23" t="s">
-        <v>1624</v>
+      <c r="A708" s="21" t="s">
+        <v>1627</v>
       </c>
       <c r="B708" s="11"/>
       <c r="C708" s="11"/>
-      <c r="D708" s="24" t="s">
-        <v>1625</v>
+      <c r="D708" s="21" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A709" s="23" t="s">
-        <v>1626</v>
+      <c r="A709" s="21" t="s">
+        <v>1629</v>
       </c>
       <c r="B709" s="11"/>
       <c r="C709" s="11"/>
-      <c r="D709" s="24" t="s">
-        <v>1627</v>
+      <c r="D709" s="21" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A710" s="23" t="s">
-        <v>1628</v>
+      <c r="A710" s="21" t="s">
+        <v>1631</v>
       </c>
       <c r="B710" s="11"/>
       <c r="C710" s="11"/>
-      <c r="D710" s="23" t="s">
-        <v>1629</v>
+      <c r="D710" s="21" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A711" s="23" t="s">
-        <v>1630</v>
+      <c r="A711" s="21" t="s">
+        <v>1633</v>
       </c>
       <c r="B711" s="11"/>
       <c r="C711" s="11"/>
-      <c r="D711" s="23" t="s">
-        <v>1631</v>
+      <c r="D711" s="21" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A712" s="23" t="s">
-        <v>1632</v>
+      <c r="A712" s="21" t="s">
+        <v>1635</v>
       </c>
       <c r="B712" s="11"/>
       <c r="C712" s="11"/>
-      <c r="D712" s="23" t="s">
-        <v>1633</v>
+      <c r="D712" s="21" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A713" s="23" t="s">
-        <v>1634</v>
+      <c r="A713" s="21" t="s">
+        <v>1637</v>
       </c>
       <c r="B713" s="11"/>
       <c r="C713" s="11"/>
-      <c r="D713" s="23" t="s">
-        <v>1635</v>
+      <c r="D713" s="21" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A714" s="23" t="s">
-        <v>1636</v>
+      <c r="A714" s="21" t="s">
+        <v>1639</v>
       </c>
       <c r="B714" s="11"/>
       <c r="C714" s="11"/>
-      <c r="D714" s="23" t="s">
-        <v>1637</v>
+      <c r="D714" s="21" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A715" s="23" t="s">
-        <v>1638</v>
+      <c r="A715" s="21" t="s">
+        <v>1641</v>
       </c>
       <c r="B715" s="11"/>
       <c r="C715" s="11"/>
-      <c r="D715" s="23" t="s">
-        <v>1639</v>
+      <c r="D715" s="21" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A716" s="23" t="s">
-        <v>1640</v>
+      <c r="A716" s="21" t="s">
+        <v>1643</v>
       </c>
       <c r="B716" s="11"/>
       <c r="C716" s="11"/>
-      <c r="D716" s="23" t="s">
-        <v>1641</v>
+      <c r="D716" s="22" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A717" s="23" t="s">
-        <v>1642</v>
+      <c r="A717" s="21" t="s">
+        <v>1645</v>
       </c>
       <c r="B717" s="11"/>
       <c r="C717" s="11"/>
-      <c r="D717" s="23" t="s">
-        <v>1643</v>
+      <c r="D717" s="21" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A718" s="23" t="s">
-        <v>1644</v>
+      <c r="A718" s="21" t="s">
+        <v>1647</v>
       </c>
       <c r="B718" s="11"/>
       <c r="C718" s="11"/>
-      <c r="D718" s="24" t="s">
-        <v>1645</v>
+      <c r="D718" s="21" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A719" s="23" t="s">
-        <v>1646</v>
+      <c r="A719" s="21" t="s">
+        <v>1649</v>
       </c>
       <c r="B719" s="11"/>
       <c r="C719" s="11"/>
-      <c r="D719" s="23" t="s">
-        <v>1647</v>
+      <c r="D719" s="21" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A720" s="23" t="s">
-        <v>1648</v>
+      <c r="A720" s="21" t="s">
+        <v>1651</v>
       </c>
       <c r="B720" s="11"/>
       <c r="C720" s="11"/>
-      <c r="D720" s="23" t="s">
-        <v>1649</v>
+      <c r="D720" s="21" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A721" s="23" t="s">
-        <v>1650</v>
+      <c r="A721" s="21" t="s">
+        <v>1653</v>
       </c>
       <c r="B721" s="11"/>
       <c r="C721" s="11"/>
-      <c r="D721" s="23" t="s">
-        <v>1651</v>
+      <c r="D721" s="21" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A722" s="23" t="s">
-        <v>1652</v>
+      <c r="A722" s="21" t="s">
+        <v>1655</v>
       </c>
       <c r="B722" s="11"/>
       <c r="C722" s="11"/>
-      <c r="D722" s="23" t="s">
-        <v>1653</v>
+      <c r="D722" s="21" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A723" s="23" t="s">
-        <v>1654</v>
+      <c r="A723" s="21" t="s">
+        <v>1657</v>
       </c>
       <c r="B723" s="11"/>
       <c r="C723" s="11"/>
-      <c r="D723" s="23" t="s">
-        <v>1655</v>
+      <c r="D723" s="21" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A724" s="23" t="s">
-        <v>1656</v>
+      <c r="A724" s="21" t="s">
+        <v>1659</v>
       </c>
       <c r="B724" s="11"/>
       <c r="C724" s="11"/>
-      <c r="D724" s="23" t="s">
-        <v>1657</v>
+      <c r="D724" s="21" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A725" s="23" t="s">
-        <v>1658</v>
+      <c r="A725" s="21" t="s">
+        <v>1661</v>
       </c>
       <c r="B725" s="11"/>
       <c r="C725" s="11"/>
-      <c r="D725" s="23" t="s">
-        <v>1659</v>
+      <c r="D725" s="21" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A726" s="23" t="s">
-        <v>1660</v>
+      <c r="A726" s="21" t="s">
+        <v>1663</v>
       </c>
       <c r="B726" s="11"/>
       <c r="C726" s="11"/>
-      <c r="D726" s="23" t="s">
-        <v>1661</v>
+      <c r="D726" s="21" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A727" s="23" t="s">
-        <v>1662</v>
+      <c r="A727" s="21" t="s">
+        <v>1665</v>
       </c>
       <c r="B727" s="11"/>
       <c r="C727" s="11"/>
-      <c r="D727" s="23" t="s">
-        <v>1663</v>
+      <c r="D727" s="21" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A728" s="23" t="s">
-        <v>1664</v>
+      <c r="A728" s="21" t="s">
+        <v>1667</v>
       </c>
       <c r="B728" s="11"/>
       <c r="C728" s="11"/>
-      <c r="D728" s="23" t="s">
-        <v>1665</v>
+      <c r="D728" s="21" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A729" s="23" t="s">
-        <v>1666</v>
+      <c r="A729" s="21" t="s">
+        <v>1669</v>
       </c>
       <c r="B729" s="11"/>
       <c r="C729" s="11"/>
-      <c r="D729" s="23" t="s">
-        <v>1667</v>
+      <c r="D729" s="21" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A730" s="23" t="s">
-        <v>1668</v>
+      <c r="A730" s="21" t="s">
+        <v>1671</v>
       </c>
       <c r="B730" s="11"/>
       <c r="C730" s="11"/>
-      <c r="D730" s="23" t="s">
-        <v>1669</v>
+      <c r="D730" s="21" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A731" s="23" t="s">
-        <v>1670</v>
+      <c r="A731" s="21" t="s">
+        <v>1673</v>
       </c>
       <c r="B731" s="11"/>
       <c r="C731" s="11"/>
-      <c r="D731" s="23" t="s">
-        <v>1671</v>
+      <c r="D731" s="22" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A732" s="23" t="s">
-        <v>1672</v>
+      <c r="A732" s="21" t="s">
+        <v>1675</v>
       </c>
       <c r="B732" s="11"/>
       <c r="C732" s="11"/>
-      <c r="D732" s="23" t="s">
-        <v>1673</v>
+      <c r="D732" s="21" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A733" s="23" t="s">
-        <v>1674</v>
+      <c r="A733" s="21" t="s">
+        <v>1677</v>
       </c>
       <c r="B733" s="11"/>
       <c r="C733" s="11"/>
-      <c r="D733" s="24" t="s">
-        <v>1675</v>
+      <c r="D733" s="21" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A734" s="23" t="s">
-        <v>1676</v>
+      <c r="A734" s="21" t="s">
+        <v>1679</v>
       </c>
       <c r="B734" s="11"/>
       <c r="C734" s="11"/>
-      <c r="D734" s="23" t="s">
-        <v>1677</v>
+      <c r="D734" s="21" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A735" s="23" t="s">
-        <v>1678</v>
+      <c r="A735" s="21" t="s">
+        <v>1681</v>
       </c>
       <c r="B735" s="11"/>
       <c r="C735" s="11"/>
-      <c r="D735" s="23" t="s">
-        <v>1679</v>
+      <c r="D735" s="21" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A736" s="23" t="s">
-        <v>1680</v>
+      <c r="A736" s="21" t="s">
+        <v>1683</v>
       </c>
       <c r="B736" s="11"/>
       <c r="C736" s="11"/>
-      <c r="D736" s="23" t="s">
-        <v>1681</v>
+      <c r="D736" s="21" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A737" s="23" t="s">
-        <v>1682</v>
+      <c r="A737" s="21" t="s">
+        <v>1685</v>
       </c>
       <c r="B737" s="11"/>
       <c r="C737" s="11"/>
-      <c r="D737" s="23" t="s">
-        <v>1683</v>
+      <c r="D737" s="21" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A738" s="23" t="s">
-        <v>1684</v>
+      <c r="A738" s="21" t="s">
+        <v>1687</v>
       </c>
       <c r="B738" s="11"/>
       <c r="C738" s="11"/>
-      <c r="D738" s="23" t="s">
-        <v>1685</v>
+      <c r="D738" s="21" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A739" s="23" t="s">
-        <v>1686</v>
+      <c r="A739" s="21" t="s">
+        <v>1689</v>
       </c>
       <c r="B739" s="11"/>
       <c r="C739" s="11"/>
-      <c r="D739" s="23" t="s">
-        <v>1687</v>
+      <c r="D739" s="21" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A740" s="23" t="s">
-        <v>1688</v>
+      <c r="A740" s="21" t="s">
+        <v>1691</v>
       </c>
       <c r="B740" s="11"/>
       <c r="C740" s="11"/>
-      <c r="D740" s="23" t="s">
-        <v>1689</v>
+      <c r="D740" s="21" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A741" s="23" t="s">
-        <v>1690</v>
+      <c r="A741" s="21" t="s">
+        <v>1693</v>
       </c>
       <c r="B741" s="11"/>
       <c r="C741" s="11"/>
-      <c r="D741" s="23" t="s">
-        <v>1691</v>
+      <c r="D741" s="21" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A742" s="23" t="s">
-        <v>1692</v>
+      <c r="A742" s="21" t="s">
+        <v>1695</v>
       </c>
       <c r="B742" s="11"/>
       <c r="C742" s="11"/>
-      <c r="D742" s="23" t="s">
-        <v>1693</v>
+      <c r="D742" s="21" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A743" s="23" t="s">
-        <v>1694</v>
+      <c r="A743" s="21" t="s">
+        <v>1697</v>
       </c>
       <c r="B743" s="11"/>
       <c r="C743" s="11"/>
-      <c r="D743" s="23" t="s">
-        <v>1695</v>
+      <c r="D743" s="21" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A744" s="23" t="s">
-        <v>1696</v>
+      <c r="A744" s="21" t="s">
+        <v>1699</v>
       </c>
       <c r="B744" s="11"/>
       <c r="C744" s="11"/>
-      <c r="D744" s="23" t="s">
-        <v>1697</v>
+      <c r="D744" s="21" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A745" s="23" t="s">
-        <v>1698</v>
+      <c r="A745" s="21" t="s">
+        <v>1701</v>
       </c>
       <c r="B745" s="11"/>
       <c r="C745" s="11"/>
-      <c r="D745" s="23" t="s">
-        <v>1699</v>
+      <c r="D745" s="22" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A746" s="23" t="s">
-        <v>1700</v>
+      <c r="A746" s="21" t="s">
+        <v>1703</v>
       </c>
       <c r="B746" s="11"/>
       <c r="C746" s="11"/>
-      <c r="D746" s="23" t="s">
-        <v>1701</v>
+      <c r="D746" s="22" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A747" s="23" t="s">
-        <v>1702</v>
+      <c r="A747" s="21" t="s">
+        <v>1705</v>
       </c>
       <c r="B747" s="11"/>
       <c r="C747" s="11"/>
-      <c r="D747" s="24" t="s">
-        <v>1703</v>
+      <c r="D747" s="21" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A748" s="23" t="s">
-        <v>1704</v>
+      <c r="A748" s="21" t="s">
+        <v>1707</v>
       </c>
       <c r="B748" s="11"/>
       <c r="C748" s="11"/>
-      <c r="D748" s="24" t="s">
-        <v>1705</v>
+      <c r="D748" s="21" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A749" s="23" t="s">
-        <v>1706</v>
+      <c r="A749" s="21" t="s">
+        <v>1709</v>
       </c>
       <c r="B749" s="11"/>
       <c r="C749" s="11"/>
-      <c r="D749" s="23" t="s">
-        <v>1707</v>
+      <c r="D749" s="21" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A750" s="23" t="s">
-        <v>1708</v>
+      <c r="A750" s="21" t="s">
+        <v>1711</v>
       </c>
       <c r="B750" s="11"/>
       <c r="C750" s="11"/>
-      <c r="D750" s="23" t="s">
-        <v>1709</v>
+      <c r="D750" s="21" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A751" s="23" t="s">
-        <v>1710</v>
+      <c r="A751" s="21" t="s">
+        <v>1713</v>
       </c>
       <c r="B751" s="11"/>
       <c r="C751" s="11"/>
-      <c r="D751" s="23" t="s">
-        <v>1711</v>
+      <c r="D751" s="21" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A752" s="23" t="s">
-        <v>1712</v>
+      <c r="A752" s="21" t="s">
+        <v>1715</v>
       </c>
       <c r="B752" s="11"/>
       <c r="C752" s="11"/>
-      <c r="D752" s="23" t="s">
-        <v>1713</v>
+      <c r="D752" s="22" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A753" s="23" t="s">
-        <v>1714</v>
+      <c r="A753" s="21" t="s">
+        <v>1717</v>
       </c>
       <c r="B753" s="11"/>
       <c r="C753" s="11"/>
-      <c r="D753" s="23" t="s">
-        <v>1715</v>
+      <c r="D753" s="21" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A754" s="23" t="s">
-        <v>1716</v>
+      <c r="A754" s="21" t="s">
+        <v>1719</v>
       </c>
       <c r="B754" s="11"/>
       <c r="C754" s="11"/>
-      <c r="D754" s="24" t="s">
-        <v>1717</v>
+      <c r="D754" s="21" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A755" s="23" t="s">
-        <v>1718</v>
+      <c r="A755" s="21" t="s">
+        <v>1721</v>
       </c>
       <c r="B755" s="11"/>
       <c r="C755" s="11"/>
-      <c r="D755" s="23" t="s">
-        <v>1719</v>
+      <c r="D755" s="21" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A756" s="23" t="s">
-        <v>1720</v>
+      <c r="A756" s="21" t="s">
+        <v>1723</v>
       </c>
       <c r="B756" s="11"/>
       <c r="C756" s="11"/>
-      <c r="D756" s="23" t="s">
-        <v>1721</v>
+      <c r="D756" s="21" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A757" s="23" t="s">
-        <v>1722</v>
+      <c r="A757" s="21" t="s">
+        <v>1725</v>
       </c>
       <c r="B757" s="11"/>
       <c r="C757" s="11"/>
-      <c r="D757" s="23" t="s">
-        <v>1723</v>
+      <c r="D757" s="21" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A758" s="23" t="s">
-        <v>1724</v>
+      <c r="A758" s="21" t="s">
+        <v>1727</v>
       </c>
       <c r="B758" s="11"/>
       <c r="C758" s="11"/>
-      <c r="D758" s="23" t="s">
-        <v>1725</v>
+      <c r="D758" s="21" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A759" s="23" t="s">
-        <v>1726</v>
+      <c r="A759" s="21" t="s">
+        <v>1729</v>
       </c>
       <c r="B759" s="11"/>
       <c r="C759" s="11"/>
-      <c r="D759" s="23" t="s">
-        <v>1727</v>
+      <c r="D759" s="21" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A760" s="23" t="s">
-        <v>1728</v>
+      <c r="A760" s="21" t="s">
+        <v>1731</v>
       </c>
       <c r="B760" s="11"/>
       <c r="C760" s="11"/>
-      <c r="D760" s="23" t="s">
-        <v>1729</v>
+      <c r="D760" s="21" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A761" s="23" t="s">
-        <v>1730</v>
+      <c r="A761" s="21" t="s">
+        <v>1733</v>
       </c>
       <c r="B761" s="11"/>
       <c r="C761" s="11"/>
-      <c r="D761" s="23" t="s">
-        <v>1731</v>
+      <c r="D761" s="21" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A762" s="23" t="s">
-        <v>1732</v>
+      <c r="A762" s="21" t="s">
+        <v>1735</v>
       </c>
       <c r="B762" s="11"/>
       <c r="C762" s="11"/>
-      <c r="D762" s="23" t="s">
-        <v>1733</v>
+      <c r="D762" s="21" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A763" s="23" t="s">
-        <v>1734</v>
+      <c r="A763" s="21" t="s">
+        <v>1737</v>
       </c>
       <c r="B763" s="11"/>
       <c r="C763" s="11"/>
-      <c r="D763" s="23" t="s">
-        <v>1735</v>
+      <c r="D763" s="21" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A764" s="23" t="s">
-        <v>1736</v>
+      <c r="A764" s="21" t="s">
+        <v>1739</v>
       </c>
       <c r="B764" s="11"/>
       <c r="C764" s="11"/>
-      <c r="D764" s="23" t="s">
-        <v>1737</v>
+      <c r="D764" s="21" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A765" s="23" t="s">
-        <v>1738</v>
+      <c r="A765" s="21" t="s">
+        <v>1741</v>
       </c>
       <c r="B765" s="11"/>
       <c r="C765" s="11"/>
-      <c r="D765" s="23" t="s">
-        <v>1739</v>
+      <c r="D765" s="21" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A766" s="23" t="s">
-        <v>1740</v>
+      <c r="A766" s="21" t="s">
+        <v>1743</v>
       </c>
       <c r="B766" s="11"/>
       <c r="C766" s="11"/>
-      <c r="D766" s="23" t="s">
-        <v>1741</v>
+      <c r="D766" s="21" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A767" s="23" t="s">
-        <v>1742</v>
+      <c r="A767" s="21" t="s">
+        <v>1745</v>
       </c>
       <c r="B767" s="11"/>
       <c r="C767" s="11"/>
-      <c r="D767" s="23" t="s">
-        <v>1743</v>
+      <c r="D767" s="21" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A768" s="23" t="s">
-        <v>1744</v>
+      <c r="A768" s="21" t="s">
+        <v>1747</v>
       </c>
       <c r="B768" s="11"/>
       <c r="C768" s="11"/>
-      <c r="D768" s="23" t="s">
-        <v>1745</v>
+      <c r="D768" s="21" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A769" s="23" t="s">
-        <v>1746</v>
+      <c r="A769" s="21" t="s">
+        <v>1749</v>
       </c>
       <c r="B769" s="11"/>
       <c r="C769" s="11"/>
-      <c r="D769" s="23" t="s">
-        <v>1747</v>
+      <c r="D769" s="21" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A770" s="23" t="s">
-        <v>1748</v>
+      <c r="A770" s="21" t="s">
+        <v>1751</v>
       </c>
       <c r="B770" s="11"/>
       <c r="C770" s="11"/>
-      <c r="D770" s="23" t="s">
-        <v>1749</v>
+      <c r="D770" s="21" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A771" s="23" t="s">
-        <v>1750</v>
+      <c r="A771" s="21" t="s">
+        <v>1753</v>
       </c>
       <c r="B771" s="11"/>
       <c r="C771" s="11"/>
-      <c r="D771" s="23" t="s">
-        <v>1751</v>
+      <c r="D771" s="21" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A772" s="23" t="s">
-        <v>1752</v>
+      <c r="A772" s="21" t="s">
+        <v>1755</v>
       </c>
       <c r="B772" s="11"/>
       <c r="C772" s="11"/>
-      <c r="D772" s="23" t="s">
-        <v>1753</v>
+      <c r="D772" s="21" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A773" s="23" t="s">
-        <v>1754</v>
+      <c r="A773" s="21" t="s">
+        <v>1757</v>
       </c>
       <c r="B773" s="11"/>
       <c r="C773" s="11"/>
-      <c r="D773" s="23" t="s">
-        <v>1755</v>
+      <c r="D773" s="21" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A774" s="23" t="s">
-        <v>1756</v>
+      <c r="A774" s="21" t="s">
+        <v>1759</v>
       </c>
       <c r="B774" s="11"/>
       <c r="C774" s="11"/>
-      <c r="D774" s="23" t="s">
-        <v>1757</v>
+      <c r="D774" s="21" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A775" s="23" t="s">
-        <v>1758</v>
+      <c r="A775" s="21" t="s">
+        <v>1761</v>
       </c>
       <c r="B775" s="11"/>
       <c r="C775" s="11"/>
-      <c r="D775" s="23" t="s">
-        <v>1759</v>
+      <c r="D775" s="21" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A776" s="23" t="s">
-        <v>1760</v>
+      <c r="A776" s="21" t="s">
+        <v>1763</v>
       </c>
       <c r="B776" s="11"/>
       <c r="C776" s="11"/>
-      <c r="D776" s="23" t="s">
-        <v>1761</v>
+      <c r="D776" s="21" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A777" s="23" t="s">
-        <v>1762</v>
+      <c r="A777" s="21" t="s">
+        <v>1765</v>
       </c>
       <c r="B777" s="11"/>
       <c r="C777" s="11"/>
-      <c r="D777" s="23" t="s">
-        <v>1763</v>
+      <c r="D777" s="21" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A778" s="23" t="s">
-        <v>1764</v>
+      <c r="A778" s="21" t="s">
+        <v>1767</v>
       </c>
       <c r="B778" s="11"/>
       <c r="C778" s="11"/>
-      <c r="D778" s="23" t="s">
-        <v>1765</v>
+      <c r="D778" s="21" t="s">
+        <v>1768</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A779" s="23" t="s">
-        <v>1766</v>
+      <c r="A779" s="21" t="s">
+        <v>1769</v>
       </c>
       <c r="B779" s="11"/>
       <c r="C779" s="11"/>
-      <c r="D779" s="23" t="s">
-        <v>1767</v>
+      <c r="D779" s="21" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A780" s="23" t="s">
-        <v>1768</v>
+      <c r="A780" s="21" t="s">
+        <v>1771</v>
       </c>
       <c r="B780" s="11"/>
       <c r="C780" s="11"/>
-      <c r="D780" s="23" t="s">
-        <v>1769</v>
+      <c r="D780" s="21" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A781" s="23" t="s">
-        <v>1770</v>
+      <c r="A781" s="21" t="s">
+        <v>1773</v>
       </c>
       <c r="B781" s="11"/>
       <c r="C781" s="11"/>
-      <c r="D781" s="23" t="s">
-        <v>1771</v>
+      <c r="D781" s="21" t="s">
+        <v>1774</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A782" s="23" t="s">
-        <v>1772</v>
+      <c r="A782" s="21" t="s">
+        <v>1775</v>
       </c>
       <c r="B782" s="11"/>
       <c r="C782" s="11"/>
-      <c r="D782" s="23" t="s">
-        <v>1773</v>
+      <c r="D782" s="22" t="s">
+        <v>1776</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A783" s="23" t="s">
-        <v>1774</v>
+      <c r="A783" s="21" t="s">
+        <v>1777</v>
       </c>
       <c r="B783" s="11"/>
       <c r="C783" s="11"/>
-      <c r="D783" s="23" t="s">
-        <v>1775</v>
+      <c r="D783" s="21" t="s">
+        <v>1778</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A784" s="23" t="s">
-        <v>1776</v>
+      <c r="A784" s="21" t="s">
+        <v>1779</v>
       </c>
       <c r="B784" s="11"/>
       <c r="C784" s="11"/>
-      <c r="D784" s="24" t="s">
-        <v>1777</v>
+      <c r="D784" s="21" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A785" s="23" t="s">
-        <v>1778</v>
+      <c r="A785" s="21" t="s">
+        <v>1781</v>
       </c>
       <c r="B785" s="11"/>
       <c r="C785" s="11"/>
-      <c r="D785" s="23" t="s">
-        <v>1779</v>
+      <c r="D785" s="21" t="s">
+        <v>1782</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A786" s="23" t="s">
-        <v>1780</v>
+      <c r="A786" s="21" t="s">
+        <v>1783</v>
       </c>
       <c r="B786" s="11"/>
       <c r="C786" s="11"/>
-      <c r="D786" s="23" t="s">
-        <v>1781</v>
+      <c r="D786" s="21" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A787" s="23" t="s">
-        <v>1782</v>
+      <c r="A787" s="21" t="s">
+        <v>1785</v>
       </c>
       <c r="B787" s="11"/>
       <c r="C787" s="11"/>
-      <c r="D787" s="23" t="s">
-        <v>1783</v>
+      <c r="D787" s="21" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A788" s="23" t="s">
-        <v>1784</v>
+      <c r="A788" s="21" t="s">
+        <v>1787</v>
       </c>
       <c r="B788" s="11"/>
       <c r="C788" s="11"/>
-      <c r="D788" s="23" t="s">
-        <v>1785</v>
+      <c r="D788" s="21" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A789" s="23" t="s">
-        <v>1786</v>
+      <c r="A789" s="21" t="s">
+        <v>1789</v>
       </c>
       <c r="B789" s="11"/>
       <c r="C789" s="11"/>
-      <c r="D789" s="23" t="s">
-        <v>1787</v>
+      <c r="D789" s="22" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A790" s="23" t="s">
-        <v>1788</v>
+      <c r="A790" s="21" t="s">
+        <v>1791</v>
       </c>
       <c r="B790" s="11"/>
       <c r="C790" s="11"/>
-      <c r="D790" s="23" t="s">
-        <v>1789</v>
+      <c r="D790" s="21" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A791" s="23" t="s">
-        <v>1790</v>
+      <c r="A791" s="21" t="s">
+        <v>1793</v>
       </c>
       <c r="B791" s="11"/>
       <c r="C791" s="11"/>
-      <c r="D791" s="24" t="s">
-        <v>1791</v>
+      <c r="D791" s="21" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A792" s="23" t="s">
-        <v>1792</v>
+      <c r="A792" s="21" t="s">
+        <v>1795</v>
       </c>
       <c r="B792" s="11"/>
       <c r="C792" s="11"/>
-      <c r="D792" s="23" t="s">
-        <v>1793</v>
+      <c r="D792" s="21" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A793" s="23" t="s">
-        <v>1794</v>
+      <c r="A793" s="21" t="s">
+        <v>1797</v>
       </c>
       <c r="B793" s="11"/>
       <c r="C793" s="11"/>
-      <c r="D793" s="23" t="s">
-        <v>1795</v>
+      <c r="D793" s="21" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A794" s="23" t="s">
-        <v>1796</v>
+      <c r="A794" s="21" t="s">
+        <v>1799</v>
       </c>
       <c r="B794" s="11"/>
       <c r="C794" s="11"/>
-      <c r="D794" s="23" t="s">
-        <v>1797</v>
+      <c r="D794" s="21" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A795" s="23" t="s">
-        <v>1798</v>
+      <c r="A795" s="21" t="s">
+        <v>1801</v>
       </c>
       <c r="B795" s="11"/>
       <c r="C795" s="11"/>
-      <c r="D795" s="23" t="s">
-        <v>1799</v>
+      <c r="D795" s="21" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A796" s="23" t="s">
-        <v>1800</v>
-      </c>
+      <c r="A796" s="11"/>
       <c r="B796" s="11"/>
       <c r="C796" s="11"/>
-      <c r="D796" s="23" t="s">
-        <v>1801</v>
-      </c>
+      <c r="D796" s="11"/>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A797" s="23" t="s">
-        <v>1802</v>
-      </c>
+      <c r="A797" s="11"/>
       <c r="B797" s="11"/>
       <c r="C797" s="11"/>
-      <c r="D797" s="23" t="s">
-        <v>1803</v>
-      </c>
+      <c r="D797" s="11"/>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="11"/>
@@ -17487,20 +17468,8 @@
       <c r="C998" s="11"/>
       <c r="D998" s="11"/>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A999" s="11"/>
-      <c r="B999" s="11"/>
-      <c r="C999" s="11"/>
-      <c r="D999" s="11"/>
-    </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1000" s="11"/>
-      <c r="B1000" s="11"/>
-      <c r="C1000" s="11"/>
-      <c r="D1000" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D797"/>
+  <autoFilter ref="A1:D795"/>
   <conditionalFormatting sqref="A602:A609">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>OR(C602=7)</formula>
@@ -17517,10 +17486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A799" sqref="A799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22017,29 +21986,29 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B369" s="3"/>
       <c r="C369" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B370" s="3"/>
       <c r="C370" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B371" s="3"/>
       <c r="C371" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -22092,26 +22061,26 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="11" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B376" s="25" t="str">
+        <v>1587</v>
+      </c>
+      <c r="B376" s="23" t="str">
         <f>VLOOKUP(A376,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRV4I</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="11" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B377" s="25" t="str">
+        <v>1587</v>
+      </c>
+      <c r="B377" s="23" t="str">
         <f>VLOOKUP(A377,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRV4I</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -22428,203 +22397,203 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B404" s="3"/>
       <c r="C404" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B405" s="25" t="str">
+        <v>1589</v>
+      </c>
+      <c r="B405" s="23" t="str">
         <f>VLOOKUP(A405,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRV9I</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="11" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B406" s="25" t="str">
+        <v>1589</v>
+      </c>
+      <c r="B406" s="23" t="str">
         <f>VLOOKUP(A406,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRV9I</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="11" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B407" s="25" t="str">
+        <v>1591</v>
+      </c>
+      <c r="B407" s="23" t="str">
         <f>VLOOKUP(A407,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXCBO</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="11" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B408" s="25" t="str">
+        <v>1591</v>
+      </c>
+      <c r="B408" s="23" t="str">
         <f>VLOOKUP(A408,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXCBO</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="11" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B409" s="25" t="str">
+        <v>1593</v>
+      </c>
+      <c r="B409" s="23" t="str">
         <f>VLOOKUP(A409,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXD6S</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="11" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B410" s="25" t="str">
+        <v>1593</v>
+      </c>
+      <c r="B410" s="23" t="str">
         <f>VLOOKUP(A410,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXD6S</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="11" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B411" s="25" t="str">
+        <v>1595</v>
+      </c>
+      <c r="B411" s="23" t="str">
         <f>VLOOKUP(A411,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXD5O</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="11" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B412" s="25" t="str">
+        <v>1595</v>
+      </c>
+      <c r="B412" s="23" t="str">
         <f>VLOOKUP(A412,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXD5O</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="11" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B413" s="25" t="str">
+        <v>1597</v>
+      </c>
+      <c r="B413" s="23" t="str">
         <f>VLOOKUP(A413,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXCT6</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B414" s="25" t="str">
+        <v>1597</v>
+      </c>
+      <c r="B414" s="23" t="str">
         <f>VLOOKUP(A414,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXCT6</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="11" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B415" s="25" t="str">
+        <v>1599</v>
+      </c>
+      <c r="B415" s="23" t="str">
         <f>VLOOKUP(A415,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXCO6</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="11" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B416" s="25" t="str">
+        <v>1599</v>
+      </c>
+      <c r="B416" s="23" t="str">
         <f>VLOOKUP(A416,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXCO6</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="11" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B417" s="25" t="str">
+        <v>1601</v>
+      </c>
+      <c r="B417" s="23" t="str">
         <f>VLOOKUP(A417,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXJ94</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B418" s="25" t="str">
+        <v>1601</v>
+      </c>
+      <c r="B418" s="23" t="str">
         <f>VLOOKUP(A418,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BXJ94</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B419" s="25" t="str">
+        <v>1603</v>
+      </c>
+      <c r="B419" s="23" t="str">
         <f>VLOOKUP(A419,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRV4S</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="11" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B420" s="25" t="str">
+        <v>1603</v>
+      </c>
+      <c r="B420" s="23" t="str">
         <f>VLOOKUP(A420,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRV4S</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -22713,146 +22682,146 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B428" s="25" t="str">
+        <v>1605</v>
+      </c>
+      <c r="B428" s="23" t="str">
         <f>VLOOKUP(A428,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRFJ4</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="11" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B429" s="25" t="str">
+        <v>1605</v>
+      </c>
+      <c r="B429" s="23" t="str">
         <f>VLOOKUP(A429,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRFJ4</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="11" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B430" s="25" t="str">
+        <v>1607</v>
+      </c>
+      <c r="B430" s="23" t="str">
         <f>VLOOKUP(A430,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSIIG</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B431" s="25" t="str">
+        <v>1607</v>
+      </c>
+      <c r="B431" s="23" t="str">
         <f>VLOOKUP(A431,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSIIG</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B432" s="25" t="str">
+        <v>1609</v>
+      </c>
+      <c r="B432" s="23" t="str">
         <f>VLOOKUP(A432,MAIN!A:D,4,FALSE)</f>
         <v>B00PL6WLI2</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="11" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B433" s="25" t="str">
+        <v>1609</v>
+      </c>
+      <c r="B433" s="23" t="str">
         <f>VLOOKUP(A433,MAIN!A:D,4,FALSE)</f>
         <v>B00PL6WLI2</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="11" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B434" s="25" t="str">
+        <v>1611</v>
+      </c>
+      <c r="B434" s="23" t="str">
         <f>VLOOKUP(A434,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSIG8</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B435" s="25" t="str">
+        <v>1611</v>
+      </c>
+      <c r="B435" s="23" t="str">
         <f>VLOOKUP(A435,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSIG8</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="11" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B436" s="25" t="str">
+        <v>1613</v>
+      </c>
+      <c r="B436" s="23" t="str">
         <f>VLOOKUP(A436,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSIPO</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="11" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B437" s="25" t="str">
+        <v>1613</v>
+      </c>
+      <c r="B437" s="23" t="str">
         <f>VLOOKUP(A437,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSIPO</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="11" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B438" s="25" t="str">
+        <v>1615</v>
+      </c>
+      <c r="B438" s="23" t="str">
         <f>VLOOKUP(A438,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSTIU</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="11" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B439" s="25" t="str">
+        <v>1615</v>
+      </c>
+      <c r="B439" s="23" t="str">
         <f>VLOOKUP(A439,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSTIU</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -22977,134 +22946,134 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="11" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B450" s="25" t="str">
+        <v>1617</v>
+      </c>
+      <c r="B450" s="23" t="str">
         <f>VLOOKUP(A450,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BV3TW</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="11" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B451" s="25" t="str">
+        <v>1617</v>
+      </c>
+      <c r="B451" s="23" t="str">
         <f>VLOOKUP(A451,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BV3TW</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="11" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B452" s="25" t="str">
+        <v>1619</v>
+      </c>
+      <c r="B452" s="23" t="str">
         <f>VLOOKUP(A452,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BV55O</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="11" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B453" s="25" t="str">
+        <v>1619</v>
+      </c>
+      <c r="B453" s="23" t="str">
         <f>VLOOKUP(A453,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BV55O</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="11" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B454" s="25" t="str">
+        <v>1621</v>
+      </c>
+      <c r="B454" s="23" t="str">
         <f>VLOOKUP(A454,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BV4OQ</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B455" s="25" t="str">
+        <v>1621</v>
+      </c>
+      <c r="B455" s="23" t="str">
         <f>VLOOKUP(A455,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BV4OQ</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="11" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B456" s="25" t="str">
+        <v>1623</v>
+      </c>
+      <c r="B456" s="23" t="str">
         <f>VLOOKUP(A456,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BR1ZM</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B457" s="25" t="str">
+        <v>1623</v>
+      </c>
+      <c r="B457" s="23" t="str">
         <f>VLOOKUP(A457,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BR1ZM</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B458" s="25" t="str">
+        <v>1623</v>
+      </c>
+      <c r="B458" s="23" t="str">
         <f>VLOOKUP(A458,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BR1ZM</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B459" s="25" t="str">
+        <v>1625</v>
+      </c>
+      <c r="B459" s="23" t="str">
         <f>VLOOKUP(A459,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BR77Y</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="11" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B460" s="25" t="str">
+        <v>1625</v>
+      </c>
+      <c r="B460" s="23" t="str">
         <f>VLOOKUP(A460,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BR77Y</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -23217,26 +23186,26 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="11" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B470" s="25" t="str">
+        <v>1627</v>
+      </c>
+      <c r="B470" s="23" t="str">
         <f>VLOOKUP(A470,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRJWW</v>
       </c>
       <c r="C470" s="11" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B471" s="25" t="str">
+        <v>1627</v>
+      </c>
+      <c r="B471" s="23" t="str">
         <f>VLOOKUP(A471,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRJWW</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -23313,410 +23282,410 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="11" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B478" s="25" t="str">
+        <v>1629</v>
+      </c>
+      <c r="B478" s="23" t="str">
         <f>VLOOKUP(A478,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRL1Q</v>
       </c>
       <c r="C478" s="11" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B479" s="25" t="str">
+        <v>1629</v>
+      </c>
+      <c r="B479" s="23" t="str">
         <f>VLOOKUP(A479,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRL1Q</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B480" s="25" t="str">
+        <v>1631</v>
+      </c>
+      <c r="B480" s="23" t="str">
         <f>VLOOKUP(A480,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSTAS</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B481" s="25" t="str">
+        <v>1631</v>
+      </c>
+      <c r="B481" s="23" t="str">
         <f>VLOOKUP(A481,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BSTAS</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="11" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B482" s="25" t="str">
+        <v>1633</v>
+      </c>
+      <c r="B482" s="23" t="str">
         <f>VLOOKUP(A482,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT23G</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="11" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B483" s="25" t="str">
+        <v>1633</v>
+      </c>
+      <c r="B483" s="23" t="str">
         <f>VLOOKUP(A483,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT23G</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="11" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B484" s="25" t="str">
+        <v>1635</v>
+      </c>
+      <c r="B484" s="23" t="str">
         <f>VLOOKUP(A484,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT29U</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="11" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B485" s="25" t="str">
+        <v>1635</v>
+      </c>
+      <c r="B485" s="23" t="str">
         <f>VLOOKUP(A485,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT29U</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B486" s="25" t="str">
+        <v>1637</v>
+      </c>
+      <c r="B486" s="23" t="str">
         <f>VLOOKUP(A486,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT6M8</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="11" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B487" s="25" t="str">
+        <v>1637</v>
+      </c>
+      <c r="B487" s="23" t="str">
         <f>VLOOKUP(A487,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT6M8</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B488" s="25" t="str">
+        <v>1639</v>
+      </c>
+      <c r="B488" s="23" t="str">
         <f>VLOOKUP(A488,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT6FU</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="11" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B489" s="25" t="str">
+        <v>1639</v>
+      </c>
+      <c r="B489" s="23" t="str">
         <f>VLOOKUP(A489,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT6FU</v>
       </c>
       <c r="C489" s="11" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="11" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B490" s="25" t="str">
+        <v>1641</v>
+      </c>
+      <c r="B490" s="23" t="str">
         <f>VLOOKUP(A490,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT6C8</v>
       </c>
       <c r="C490" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="11" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B491" s="25" t="str">
+        <v>1641</v>
+      </c>
+      <c r="B491" s="23" t="str">
         <f>VLOOKUP(A491,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BT6C8</v>
       </c>
       <c r="C491" s="11" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="11" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B492" s="25" t="str">
+        <v>1643</v>
+      </c>
+      <c r="B492" s="23" t="str">
         <f>VLOOKUP(A492,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTCCC</v>
       </c>
       <c r="C492" s="11" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="11" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B493" s="25" t="str">
+        <v>1643</v>
+      </c>
+      <c r="B493" s="23" t="str">
         <f>VLOOKUP(A493,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTCCC</v>
       </c>
       <c r="C493" s="11" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B494" s="25" t="str">
+        <v>1645</v>
+      </c>
+      <c r="B494" s="23" t="str">
         <f>VLOOKUP(A494,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQU6S</v>
       </c>
       <c r="C494" s="11" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="11" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B495" s="25" t="str">
+        <v>1645</v>
+      </c>
+      <c r="B495" s="23" t="str">
         <f>VLOOKUP(A495,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQU6S</v>
       </c>
       <c r="C495" s="11" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="11" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B496" s="25" t="str">
+        <v>1647</v>
+      </c>
+      <c r="B496" s="23" t="str">
         <f>VLOOKUP(A496,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRVDY</v>
       </c>
       <c r="C496" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="11" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B497" s="25" t="str">
+        <v>1647</v>
+      </c>
+      <c r="B497" s="23" t="str">
         <f>VLOOKUP(A497,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BRVDY</v>
       </c>
       <c r="C497" s="11" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="11" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B498" s="25" t="str">
+        <v>1649</v>
+      </c>
+      <c r="B498" s="23" t="str">
         <f>VLOOKUP(A498,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTCL8</v>
       </c>
       <c r="C498" s="11" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B499" s="25" t="str">
+        <v>1649</v>
+      </c>
+      <c r="B499" s="23" t="str">
         <f>VLOOKUP(A499,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTCL8</v>
       </c>
       <c r="C499" s="11" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="11" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B500" s="25" t="str">
+        <v>1651</v>
+      </c>
+      <c r="B500" s="23" t="str">
         <f>VLOOKUP(A500,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTD9E</v>
       </c>
       <c r="C500" s="11" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="11" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B501" s="25" t="str">
+        <v>1651</v>
+      </c>
+      <c r="B501" s="23" t="str">
         <f>VLOOKUP(A501,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTD9E</v>
       </c>
       <c r="C501" s="11" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="11" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B502" s="25" t="str">
+        <v>1653</v>
+      </c>
+      <c r="B502" s="23" t="str">
         <f>VLOOKUP(A502,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTI08</v>
       </c>
       <c r="C502" s="11" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="11" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B503" s="25" t="str">
+        <v>1653</v>
+      </c>
+      <c r="B503" s="23" t="str">
         <f>VLOOKUP(A503,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTI08</v>
       </c>
       <c r="C503" s="11" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="11" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B504" s="25" t="str">
+        <v>1655</v>
+      </c>
+      <c r="B504" s="23" t="str">
         <f>VLOOKUP(A504,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTHS6</v>
       </c>
       <c r="C504" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="11" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B505" s="25" t="str">
+        <v>1655</v>
+      </c>
+      <c r="B505" s="23" t="str">
         <f>VLOOKUP(A505,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTHS6</v>
       </c>
       <c r="C505" s="11" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="11" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B506" s="25" t="str">
+        <v>1657</v>
+      </c>
+      <c r="B506" s="23" t="str">
         <f>VLOOKUP(A506,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTNVC</v>
       </c>
       <c r="C506" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="11" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B507" s="25" t="str">
+        <v>1657</v>
+      </c>
+      <c r="B507" s="23" t="str">
         <f>VLOOKUP(A507,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTNVC</v>
       </c>
       <c r="C507" s="11" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="11" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B508" s="25" t="str">
+        <v>1659</v>
+      </c>
+      <c r="B508" s="23" t="str">
         <f>VLOOKUP(A508,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTURY</v>
       </c>
       <c r="C508" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="11" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B509" s="25" t="str">
+        <v>1659</v>
+      </c>
+      <c r="B509" s="23" t="str">
         <f>VLOOKUP(A509,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTURY</v>
       </c>
       <c r="C509" s="11" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="11" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B510" s="25" t="str">
+        <v>1661</v>
+      </c>
+      <c r="B510" s="23" t="str">
         <f>VLOOKUP(A510,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQV30</v>
       </c>
       <c r="C510" s="11" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="11" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B511" s="25" t="str">
+        <v>1661</v>
+      </c>
+      <c r="B511" s="23" t="str">
         <f>VLOOKUP(A511,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQV30</v>
       </c>
       <c r="C511" s="11" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -23793,290 +23762,290 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="11" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B518" s="25" t="str">
+        <v>1663</v>
+      </c>
+      <c r="B518" s="23" t="str">
         <f>VLOOKUP(A518,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQUMW</v>
       </c>
       <c r="C518" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="11" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B519" s="25" t="str">
+        <v>1663</v>
+      </c>
+      <c r="B519" s="23" t="str">
         <f>VLOOKUP(A519,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQUMW</v>
       </c>
       <c r="C519" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="11" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B520" s="25" t="str">
+        <v>1665</v>
+      </c>
+      <c r="B520" s="23" t="str">
         <f>VLOOKUP(A520,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTO6G</v>
       </c>
       <c r="C520" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="11" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B521" s="25" t="str">
+        <v>1665</v>
+      </c>
+      <c r="B521" s="23" t="str">
         <f>VLOOKUP(A521,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTO6G</v>
       </c>
       <c r="C521" s="11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="11" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B522" s="25" t="str">
+        <v>1667</v>
+      </c>
+      <c r="B522" s="23" t="str">
         <f>VLOOKUP(A522,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTNVM</v>
       </c>
       <c r="C522" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="11" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B523" s="25" t="str">
+        <v>1667</v>
+      </c>
+      <c r="B523" s="23" t="str">
         <f>VLOOKUP(A523,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTNVM</v>
       </c>
       <c r="C523" s="11" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="11" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B524" s="25" t="str">
+        <v>1669</v>
+      </c>
+      <c r="B524" s="23" t="str">
         <f>VLOOKUP(A524,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTOO8</v>
       </c>
       <c r="C524" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="11" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B525" s="25" t="str">
+        <v>1669</v>
+      </c>
+      <c r="B525" s="23" t="str">
         <f>VLOOKUP(A525,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BTOO8</v>
       </c>
       <c r="C525" s="11" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="11" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B526" s="25" t="str">
+        <v>1671</v>
+      </c>
+      <c r="B526" s="23" t="str">
         <f>VLOOKUP(A526,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQUR2</v>
       </c>
       <c r="C526" s="11" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="11" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B527" s="25" t="str">
+        <v>1671</v>
+      </c>
+      <c r="B527" s="23" t="str">
         <f>VLOOKUP(A527,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQUR2</v>
       </c>
       <c r="C527" s="11" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="11" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B528" s="25" t="str">
+        <v>1673</v>
+      </c>
+      <c r="B528" s="23" t="str">
         <f>VLOOKUP(A528,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQUKE</v>
       </c>
       <c r="C528" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="11" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B529" s="25" t="str">
+        <v>1673</v>
+      </c>
+      <c r="B529" s="23" t="str">
         <f>VLOOKUP(A529,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BQUKE</v>
       </c>
       <c r="C529" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="11" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B530" s="25" t="str">
+        <v>1675</v>
+      </c>
+      <c r="B530" s="23" t="str">
         <f>VLOOKUP(A530,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU0YG</v>
       </c>
       <c r="C530" s="11" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="11" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B531" s="25" t="str">
+        <v>1675</v>
+      </c>
+      <c r="B531" s="23" t="str">
         <f>VLOOKUP(A531,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU0YG</v>
       </c>
       <c r="C531" s="11" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="11" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B532" s="25" t="str">
+        <v>1677</v>
+      </c>
+      <c r="B532" s="23" t="str">
         <f>VLOOKUP(A532,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU0VY</v>
       </c>
       <c r="C532" s="11" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="11" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B533" s="25" t="str">
+        <v>1677</v>
+      </c>
+      <c r="B533" s="23" t="str">
         <f>VLOOKUP(A533,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU0VY</v>
       </c>
       <c r="C533" s="11" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B534" s="25" t="str">
+        <v>1679</v>
+      </c>
+      <c r="B534" s="23" t="str">
         <f>VLOOKUP(A534,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU13G</v>
       </c>
       <c r="C534" s="11" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B535" s="25" t="str">
+        <v>1679</v>
+      </c>
+      <c r="B535" s="23" t="str">
         <f>VLOOKUP(A535,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU13G</v>
       </c>
       <c r="C535" s="11" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="11" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B536" s="25" t="str">
+        <v>1681</v>
+      </c>
+      <c r="B536" s="23" t="str">
         <f>VLOOKUP(A536,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU17C</v>
       </c>
       <c r="C536" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="11" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B537" s="25" t="str">
+        <v>1681</v>
+      </c>
+      <c r="B537" s="23" t="str">
         <f>VLOOKUP(A537,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU17C</v>
       </c>
       <c r="C537" s="11" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="11" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B538" s="25" t="str">
+        <v>1683</v>
+      </c>
+      <c r="B538" s="23" t="str">
         <f>VLOOKUP(A538,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU24E</v>
       </c>
       <c r="C538" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="11" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B539" s="25" t="str">
+        <v>1683</v>
+      </c>
+      <c r="B539" s="23" t="str">
         <f>VLOOKUP(A539,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BU24E</v>
       </c>
       <c r="C539" s="11" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="11" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B540" s="25" t="str">
+        <v>1685</v>
+      </c>
+      <c r="B540" s="23" t="str">
         <f>VLOOKUP(A540,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUCBC</v>
       </c>
       <c r="C540" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="11" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B541" s="25" t="str">
+        <v>1685</v>
+      </c>
+      <c r="B541" s="23" t="str">
         <f>VLOOKUP(A541,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUCBC</v>
       </c>
       <c r="C541" s="11" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -24117,218 +24086,218 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="11" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B545" s="25" t="str">
+        <v>1687</v>
+      </c>
+      <c r="B545" s="23" t="str">
         <f>VLOOKUP(A545,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUC0S</v>
       </c>
       <c r="C545" s="11" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="11" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B546" s="25" t="str">
+        <v>1687</v>
+      </c>
+      <c r="B546" s="23" t="str">
         <f>VLOOKUP(A546,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUC0S</v>
       </c>
       <c r="C546" s="11" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="11" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B547" s="25" t="str">
+        <v>1689</v>
+      </c>
+      <c r="B547" s="23" t="str">
         <f>VLOOKUP(A547,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUCAI</v>
       </c>
       <c r="C547" s="11" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="11" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B548" s="25" t="str">
+        <v>1689</v>
+      </c>
+      <c r="B548" s="23" t="str">
         <f>VLOOKUP(A548,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUCAI</v>
       </c>
       <c r="C548" s="11" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="11" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B549" s="25" t="str">
+        <v>1691</v>
+      </c>
+      <c r="B549" s="23" t="str">
         <f>VLOOKUP(A549,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUCK8</v>
       </c>
       <c r="C549" s="11" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="11" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B550" s="25" t="str">
+        <v>1691</v>
+      </c>
+      <c r="B550" s="23" t="str">
         <f>VLOOKUP(A550,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUCK8</v>
       </c>
       <c r="C550" s="11" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="11" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B551" s="25" t="str">
+        <v>1693</v>
+      </c>
+      <c r="B551" s="23" t="str">
         <f>VLOOKUP(A551,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUD98</v>
       </c>
       <c r="C551" s="11" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="11" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B552" s="25" t="str">
+        <v>1693</v>
+      </c>
+      <c r="B552" s="23" t="str">
         <f>VLOOKUP(A552,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUD98</v>
       </c>
       <c r="C552" s="11" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="11" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B553" s="25" t="str">
+        <v>1695</v>
+      </c>
+      <c r="B553" s="23" t="str">
         <f>VLOOKUP(A553,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUMO4</v>
       </c>
       <c r="C553" s="11" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="11" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B554" s="25" t="str">
+        <v>1695</v>
+      </c>
+      <c r="B554" s="23" t="str">
         <f>VLOOKUP(A554,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUMO4</v>
       </c>
       <c r="C554" s="11" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="11" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B555" s="25" t="str">
+        <v>1697</v>
+      </c>
+      <c r="B555" s="23" t="str">
         <f>VLOOKUP(A555,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUMT4</v>
       </c>
       <c r="C555" s="11" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="11" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B556" s="25" t="str">
+        <v>1697</v>
+      </c>
+      <c r="B556" s="23" t="str">
         <f>VLOOKUP(A556,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUMT4</v>
       </c>
       <c r="C556" s="11" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="11" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B557" s="25" t="str">
+        <v>1699</v>
+      </c>
+      <c r="B557" s="23" t="str">
         <f>VLOOKUP(A557,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUMMQ</v>
       </c>
       <c r="C557" s="11" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B558" s="25" t="str">
+        <v>1699</v>
+      </c>
+      <c r="B558" s="23" t="str">
         <f>VLOOKUP(A558,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUMMQ</v>
       </c>
       <c r="C558" s="11" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="11" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B559" s="25" t="str">
+        <v>1701</v>
+      </c>
+      <c r="B559" s="23" t="str">
         <f>VLOOKUP(A559,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUMUS</v>
       </c>
       <c r="C559" s="11" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="11" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B560" s="25" t="str">
+        <v>1701</v>
+      </c>
+      <c r="B560" s="23" t="str">
         <f>VLOOKUP(A560,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUMUS</v>
       </c>
       <c r="C560" s="11" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="11" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B561" s="25" t="str">
+        <v>1703</v>
+      </c>
+      <c r="B561" s="23" t="str">
         <f>VLOOKUP(A561,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUOAG</v>
       </c>
       <c r="C561" s="11" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="11" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B562" s="25" t="str">
+        <v>1703</v>
+      </c>
+      <c r="B562" s="23" t="str">
         <f>VLOOKUP(A562,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BUOAG</v>
       </c>
       <c r="C562" s="11" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -24489,74 +24458,74 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="11" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B576" s="25" t="str">
+        <v>1705</v>
+      </c>
+      <c r="B576" s="23" t="str">
         <f>VLOOKUP(A576,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BV4XM</v>
       </c>
       <c r="C576" s="11" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B577" s="25" t="str">
+        <v>1705</v>
+      </c>
+      <c r="B577" s="23" t="str">
         <f>VLOOKUP(A577,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BV4XM</v>
       </c>
       <c r="C577" s="11" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="11" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B578" s="25" t="str">
+        <v>1707</v>
+      </c>
+      <c r="B578" s="23" t="str">
         <f>VLOOKUP(A578,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVBGW</v>
       </c>
       <c r="C578" s="11" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="11" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B579" s="25" t="str">
+        <v>1707</v>
+      </c>
+      <c r="B579" s="23" t="str">
         <f>VLOOKUP(A579,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVBGW</v>
       </c>
       <c r="C579" s="11" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="11" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B580" s="25" t="str">
+        <v>1709</v>
+      </c>
+      <c r="B580" s="23" t="str">
         <f>VLOOKUP(A580,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVBLC</v>
       </c>
       <c r="C580" s="11" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="11" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B581" s="25" t="str">
+        <v>1709</v>
+      </c>
+      <c r="B581" s="23" t="str">
         <f>VLOOKUP(A581,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVBLC</v>
       </c>
       <c r="C581" s="11" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -24597,74 +24566,74 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="11" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B585" s="25" t="str">
+        <v>1711</v>
+      </c>
+      <c r="B585" s="23" t="str">
         <f>VLOOKUP(A585,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVC3E</v>
       </c>
       <c r="C585" s="11" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="11" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B586" s="25" t="str">
+        <v>1711</v>
+      </c>
+      <c r="B586" s="23" t="str">
         <f>VLOOKUP(A586,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVC3E</v>
       </c>
       <c r="C586" s="11" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="11" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B587" s="25" t="str">
+        <v>1713</v>
+      </c>
+      <c r="B587" s="23" t="str">
         <f>VLOOKUP(A587,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVCCA</v>
       </c>
       <c r="C587" s="11" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="11" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B588" s="25" t="str">
+        <v>1713</v>
+      </c>
+      <c r="B588" s="23" t="str">
         <f>VLOOKUP(A588,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVCCA</v>
       </c>
       <c r="C588" s="11" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="11" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B589" s="25" t="str">
+        <v>1715</v>
+      </c>
+      <c r="B589" s="23" t="str">
         <f>VLOOKUP(A589,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BR8OG</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="11" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B590" s="25" t="str">
+        <v>1715</v>
+      </c>
+      <c r="B590" s="23" t="str">
         <f>VLOOKUP(A590,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BR8OG</v>
       </c>
       <c r="C590" s="11" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -24729,74 +24698,74 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="11" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B596" s="25" t="str">
+        <v>1717</v>
+      </c>
+      <c r="B596" s="23" t="str">
         <f>VLOOKUP(A596,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVBQC</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="11" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B597" s="25" t="str">
+        <v>1717</v>
+      </c>
+      <c r="B597" s="23" t="str">
         <f>VLOOKUP(A597,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVBQC</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="11" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B598" s="25" t="str">
+        <v>1719</v>
+      </c>
+      <c r="B598" s="23" t="str">
         <f>VLOOKUP(A598,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVHSY</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="11" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B599" s="25" t="str">
+        <v>1719</v>
+      </c>
+      <c r="B599" s="23" t="str">
         <f>VLOOKUP(A599,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVHSY</v>
       </c>
       <c r="C599" s="11" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="11" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B600" s="25" t="str">
+        <v>1721</v>
+      </c>
+      <c r="B600" s="23" t="str">
         <f>VLOOKUP(A600,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVIT2</v>
       </c>
       <c r="C600" s="11" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="11" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B601" s="25" t="str">
+        <v>1721</v>
+      </c>
+      <c r="B601" s="23" t="str">
         <f>VLOOKUP(A601,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVIT2</v>
       </c>
       <c r="C601" s="11" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -24873,2366 +24842,2412 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="11" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B608" s="25" t="str">
+        <v>1723</v>
+      </c>
+      <c r="B608" s="23" t="str">
         <f>VLOOKUP(A608,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVO5A</v>
       </c>
       <c r="C608" s="11" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="11" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B609" s="25" t="str">
+        <v>1723</v>
+      </c>
+      <c r="B609" s="23" t="str">
         <f>VLOOKUP(A609,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVO5A</v>
       </c>
       <c r="C609" s="11" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="11" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B610" s="25" t="str">
+        <v>1725</v>
+      </c>
+      <c r="B610" s="23" t="str">
         <f>VLOOKUP(A610,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVNKG</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="11" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B611" s="25" t="str">
+        <v>1725</v>
+      </c>
+      <c r="B611" s="23" t="str">
         <f>VLOOKUP(A611,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVNKG</v>
       </c>
       <c r="C611" s="11" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="11" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B612" s="25" t="str">
+        <v>1727</v>
+      </c>
+      <c r="B612" s="23" t="str">
         <f>VLOOKUP(A612,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVNSI</v>
       </c>
       <c r="C612" s="11" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="11" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B613" s="25" t="str">
+        <v>1030</v>
+      </c>
+      <c r="B613" s="10" t="str">
         <f>VLOOKUP(A613,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BVNSI</v>
+        <v>B00ASNVM1K</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>1728</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="11" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B614" s="10" t="str">
         <f>VLOOKUP(A614,MAIN!A:D,4,FALSE)</f>
-        <v>B00ASNVM1K</v>
+        <v>B00B11VK1K</v>
       </c>
       <c r="C614" s="11" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="11" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B615" s="10" t="str">
         <f>VLOOKUP(A615,MAIN!A:D,4,FALSE)</f>
-        <v>B00B11VK1K</v>
+        <v>B00B11VLSM</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="11" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B616" s="10" t="str">
         <f>VLOOKUP(A616,MAIN!A:D,4,FALSE)</f>
-        <v>B00B11VLSM</v>
+        <v>B00B11VKO2</v>
       </c>
       <c r="C616" s="11" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="11" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B617" s="10" t="str">
         <f>VLOOKUP(A617,MAIN!A:D,4,FALSE)</f>
-        <v>B00B11VKO2</v>
+        <v>B00B11VL78</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="11" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B618" s="10" t="str">
+        <v>1729</v>
+      </c>
+      <c r="B618" s="23" t="str">
         <f>VLOOKUP(A618,MAIN!A:D,4,FALSE)</f>
-        <v>B00B11VL78</v>
+        <v>B00P9BVZOU</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>1042</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="11" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B619" s="25" t="str">
+        <v>1729</v>
+      </c>
+      <c r="B619" s="23" t="str">
         <f>VLOOKUP(A619,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVZOU</v>
       </c>
       <c r="C619" s="11" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="11" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B620" s="25" t="str">
+        <v>1731</v>
+      </c>
+      <c r="B620" s="23" t="str">
         <f>VLOOKUP(A620,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BVZOU</v>
+        <v>B00P9BW5C6</v>
       </c>
       <c r="C620" s="11" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="11" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B621" s="25" t="str">
+        <v>1731</v>
+      </c>
+      <c r="B621" s="23" t="str">
         <f>VLOOKUP(A621,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BW5C6</v>
       </c>
       <c r="C621" s="11" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="11" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B622" s="25" t="str">
+        <v>1733</v>
+      </c>
+      <c r="B622" s="23" t="str">
         <f>VLOOKUP(A622,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BW5C6</v>
+        <v>B00P9BVYP0</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="11" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B623" s="25" t="str">
+        <v>1733</v>
+      </c>
+      <c r="B623" s="23" t="str">
         <f>VLOOKUP(A623,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVYP0</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="11" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B624" s="25" t="str">
+        <v>1735</v>
+      </c>
+      <c r="B624" s="23" t="str">
         <f>VLOOKUP(A624,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BVYP0</v>
+        <v>B00P9BVZHM</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="11" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B625" s="25" t="str">
+        <v>1735</v>
+      </c>
+      <c r="B625" s="23" t="str">
         <f>VLOOKUP(A625,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVZHM</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="11" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B626" s="25" t="str">
+        <v>1737</v>
+      </c>
+      <c r="B626" s="23" t="str">
         <f>VLOOKUP(A626,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BVZHM</v>
+        <v>B00P9BVZ8G</v>
       </c>
       <c r="C626" s="11" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="11" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B627" s="25" t="str">
+        <v>1737</v>
+      </c>
+      <c r="B627" s="23" t="str">
         <f>VLOOKUP(A627,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BVZ8G</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="11" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B628" s="25" t="str">
+        <v>1739</v>
+      </c>
+      <c r="B628" s="23" t="str">
         <f>VLOOKUP(A628,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BVZ8G</v>
+        <v>B00P9BWFSK</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="11" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B629" s="25" t="str">
+        <v>1739</v>
+      </c>
+      <c r="B629" s="23" t="str">
         <f>VLOOKUP(A629,MAIN!A:D,4,FALSE)</f>
         <v>B00P9BWFSK</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="11" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B630" s="25" t="str">
+        <v>1045</v>
+      </c>
+      <c r="B630" s="10" t="str">
         <f>VLOOKUP(A630,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BWFSK</v>
+        <v>B00NBOMBJA</v>
       </c>
       <c r="C630" s="11" t="s">
-        <v>1740</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="11" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B631" s="10" t="str">
         <f>VLOOKUP(A631,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMBJA</v>
+        <v>B00NEHSXFU</v>
       </c>
       <c r="C631" s="11" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="11" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B632" s="10" t="str">
         <f>VLOOKUP(A632,MAIN!A:D,4,FALSE)</f>
-        <v>B00NEHSXFU</v>
+        <v>B00NBOMDHA</v>
       </c>
       <c r="C632" s="11" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="11" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B633" s="10" t="str">
         <f>VLOOKUP(A633,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMDHA</v>
+        <v>B00NBOMBF4</v>
       </c>
       <c r="C633" s="11" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="11" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B634" s="10" t="str">
         <f>VLOOKUP(A634,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMBF4</v>
+        <v>B00NBOK66U</v>
       </c>
       <c r="C634" s="11" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="11" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B635" s="10" t="str">
         <f>VLOOKUP(A635,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOK660</v>
+        <v>B00NBOKAAM</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="11" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="B636" s="10" t="str">
         <f>VLOOKUP(A636,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOK66U</v>
+        <v>B00NBOMBGS</v>
       </c>
       <c r="C636" s="11" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="11" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B637" s="10" t="str">
+        <v>1741</v>
+      </c>
+      <c r="B637" s="23" t="str">
         <f>VLOOKUP(A637,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOKAAM</v>
+        <v>B00P9BWFA8</v>
       </c>
       <c r="C637" s="11" t="s">
-        <v>1063</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B638" s="10" t="str">
+        <v>1741</v>
+      </c>
+      <c r="B638" s="23" t="str">
         <f>VLOOKUP(A638,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMBGS</v>
+        <v>B00P9BWFA8</v>
       </c>
       <c r="C638" s="11" t="s">
-        <v>1066</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B639" s="25" t="str">
+        <v>1743</v>
+      </c>
+      <c r="B639" s="23" t="str">
         <f>VLOOKUP(A639,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BWFA8</v>
+        <v>B00P9BWFY4</v>
       </c>
       <c r="C639" s="11" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B640" s="25" t="str">
+        <v>1743</v>
+      </c>
+      <c r="B640" s="23" t="str">
         <f>VLOOKUP(A640,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BWFA8</v>
+        <v>B00P9BWFY4</v>
       </c>
       <c r="C640" s="11" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="11" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B641" s="25" t="str">
+        <v>1745</v>
+      </c>
+      <c r="B641" s="23" t="str">
         <f>VLOOKUP(A641,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BWFY4</v>
+        <v>B00P9BWG16</v>
       </c>
       <c r="C641" s="11" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="11" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B642" s="25" t="str">
+        <v>1745</v>
+      </c>
+      <c r="B642" s="23" t="str">
         <f>VLOOKUP(A642,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BWFY4</v>
+        <v>B00P9BWG16</v>
       </c>
       <c r="C642" s="11" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="11" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B643" s="25" t="str">
+        <v>1747</v>
+      </c>
+      <c r="B643" s="23" t="str">
         <f>VLOOKUP(A643,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BWG16</v>
+        <v>B00OTM17SY</v>
       </c>
       <c r="C643" s="11" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="11" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B644" s="25" t="str">
+        <v>1747</v>
+      </c>
+      <c r="B644" s="23" t="str">
         <f>VLOOKUP(A644,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BWG16</v>
+        <v>B00OTM17SY</v>
       </c>
       <c r="C644" s="11" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="11" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B645" s="25" t="str">
+        <v>1749</v>
+      </c>
+      <c r="B645" s="23" t="str">
         <f>VLOOKUP(A645,MAIN!A:D,4,FALSE)</f>
-        <v>B00OTM17SY</v>
+        <v>B00P9BR7TC</v>
       </c>
       <c r="C645" s="11" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="11" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B646" s="25" t="str">
+        <v>1749</v>
+      </c>
+      <c r="B646" s="23" t="str">
         <f>VLOOKUP(A646,MAIN!A:D,4,FALSE)</f>
-        <v>B00OTM17SY</v>
+        <v>B00P9BR7TC</v>
       </c>
       <c r="C646" s="11" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="11" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B647" s="25" t="str">
+        <v>1751</v>
+      </c>
+      <c r="B647" s="23" t="str">
         <f>VLOOKUP(A647,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BR7TC</v>
+        <v>B00P9BXOL2</v>
       </c>
       <c r="C647" s="11" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="11" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B648" s="25" t="str">
+        <v>1751</v>
+      </c>
+      <c r="B648" s="23" t="str">
         <f>VLOOKUP(A648,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BR7TC</v>
+        <v>B00P9BXOL2</v>
       </c>
       <c r="C648" s="11" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="11" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B649" s="25" t="str">
+        <v>1753</v>
+      </c>
+      <c r="B649" s="23" t="str">
         <f>VLOOKUP(A649,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXOL2</v>
+        <v>B00P9BXNYU</v>
       </c>
       <c r="C649" s="11" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="11" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B650" s="25" t="str">
+        <v>1753</v>
+      </c>
+      <c r="B650" s="23" t="str">
         <f>VLOOKUP(A650,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXOL2</v>
+        <v>B00P9BXNYU</v>
       </c>
       <c r="C650" s="11" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="11" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B651" s="25" t="str">
+        <v>1755</v>
+      </c>
+      <c r="B651" s="23" t="str">
         <f>VLOOKUP(A651,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXNYU</v>
+        <v>B00P9BXOE4</v>
       </c>
       <c r="C651" s="11" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="11" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B652" s="25" t="str">
+        <v>1755</v>
+      </c>
+      <c r="B652" s="23" t="str">
         <f>VLOOKUP(A652,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXNYU</v>
+        <v>B00P9BXOE4</v>
       </c>
       <c r="C652" s="11" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="11" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B653" s="25" t="str">
+        <v>1757</v>
+      </c>
+      <c r="B653" s="23" t="str">
         <f>VLOOKUP(A653,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXOE4</v>
+        <v>B00P9BXO5S</v>
       </c>
       <c r="C653" s="11" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="11" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B654" s="25" t="str">
+        <v>1757</v>
+      </c>
+      <c r="B654" s="23" t="str">
         <f>VLOOKUP(A654,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXOE4</v>
+        <v>B00P9BXO5S</v>
       </c>
       <c r="C654" s="11" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="11" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B655" s="25" t="str">
+        <v>1759</v>
+      </c>
+      <c r="B655" s="23" t="str">
         <f>VLOOKUP(A655,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXO5S</v>
+        <v>B00P9BXVOC</v>
       </c>
       <c r="C655" s="11" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="11" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B656" s="25" t="str">
+        <v>1759</v>
+      </c>
+      <c r="B656" s="23" t="str">
         <f>VLOOKUP(A656,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXO5S</v>
+        <v>B00P9BXVOC</v>
       </c>
       <c r="C656" s="11" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="11" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B657" s="25" t="str">
+        <v>1761</v>
+      </c>
+      <c r="B657" s="23" t="str">
         <f>VLOOKUP(A657,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXVOC</v>
+        <v>B00P9BXVAQ</v>
       </c>
       <c r="C657" s="11" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="11" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B658" s="25" t="str">
+        <v>1761</v>
+      </c>
+      <c r="B658" s="23" t="str">
         <f>VLOOKUP(A658,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXVOC</v>
+        <v>B00P9BXVAQ</v>
       </c>
       <c r="C658" s="11" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B659" s="25" t="str">
+        <v>1069</v>
+      </c>
+      <c r="B659" s="10">
         <f>VLOOKUP(A659,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXVAQ</v>
+        <v>0</v>
       </c>
       <c r="C659" s="11" t="s">
-        <v>1762</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B660" s="25" t="str">
+        <v>1071</v>
+      </c>
+      <c r="B660" s="10">
         <f>VLOOKUP(A660,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BXVAQ</v>
+        <v>0</v>
       </c>
       <c r="C660" s="11" t="s">
-        <v>1762</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="11" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B661" s="10">
         <f>VLOOKUP(A661,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C661" s="11" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="11" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B662" s="10">
         <f>VLOOKUP(A662,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C662" s="11" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="11" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B663" s="10">
         <f>VLOOKUP(A663,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C663" s="11" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="11" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="B664" s="10">
         <f>VLOOKUP(A664,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C664" s="11" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="11" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B665" s="10">
         <f>VLOOKUP(A665,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C665" s="11" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="11" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B666" s="10">
         <f>VLOOKUP(A666,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C666" s="11" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="11" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B667" s="10">
+        <v>1763</v>
+      </c>
+      <c r="B667" s="23" t="str">
         <f>VLOOKUP(A667,MAIN!A:D,4,FALSE)</f>
-        <v>0</v>
+        <v>B00P9BRVRA</v>
       </c>
       <c r="C667" s="11" t="s">
-        <v>1081</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B668" s="10">
+        <v>1763</v>
+      </c>
+      <c r="B668" s="23" t="str">
         <f>VLOOKUP(A668,MAIN!A:D,4,FALSE)</f>
-        <v>0</v>
+        <v>B00P9BRVRA</v>
       </c>
       <c r="C668" s="11" t="s">
-        <v>1083</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="11" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B669" s="25" t="str">
+        <v>1765</v>
+      </c>
+      <c r="B669" s="23" t="str">
         <f>VLOOKUP(A669,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BRVRA</v>
+        <v>B00P9BS24Q</v>
       </c>
       <c r="C669" s="11" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="11" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B670" s="25" t="str">
+        <v>1767</v>
+      </c>
+      <c r="B670" s="23" t="str">
         <f>VLOOKUP(A670,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BRVRA</v>
+        <v>B00P9BS1ZG</v>
       </c>
       <c r="C670" s="11" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="11" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B671" s="25" t="str">
+        <v>1769</v>
+      </c>
+      <c r="B671" s="23" t="str">
         <f>VLOOKUP(A671,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BS24Q</v>
+        <v>B00P9BS75A</v>
       </c>
       <c r="C671" s="11" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="11" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B672" s="25" t="str">
+        <v>1771</v>
+      </c>
+      <c r="B672" s="23" t="str">
         <f>VLOOKUP(A672,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BS1ZG</v>
+        <v>B00P9BS22I</v>
       </c>
       <c r="C672" s="11" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="11" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B673" s="25" t="str">
+        <v>1773</v>
+      </c>
+      <c r="B673" s="23" t="str">
         <f>VLOOKUP(A673,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BS75A</v>
+        <v>B00P9BS6L0</v>
       </c>
       <c r="C673" s="11" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="11" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B674" s="25" t="str">
+        <v>1089</v>
+      </c>
+      <c r="B674" s="10" t="str">
         <f>VLOOKUP(A674,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BS22I</v>
+        <v>B00NBOMGEU</v>
       </c>
       <c r="C674" s="11" t="s">
-        <v>1772</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="11" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B675" s="25" t="str">
+        <v>1092</v>
+      </c>
+      <c r="B675" s="10" t="str">
         <f>VLOOKUP(A675,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BS6L0</v>
+        <v>B00NEHSYYA</v>
       </c>
       <c r="C675" s="11" t="s">
-        <v>1774</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="11" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="B676" s="10" t="str">
         <f>VLOOKUP(A676,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMGEU</v>
+        <v>B00NBOMH12</v>
       </c>
       <c r="C676" s="11" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="11" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="B677" s="10" t="str">
         <f>VLOOKUP(A677,MAIN!A:D,4,FALSE)</f>
-        <v>B00NEHSYYA</v>
+        <v>B00NBOMGMC</v>
       </c>
       <c r="C677" s="11" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="11" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="B678" s="10" t="str">
         <f>VLOOKUP(A678,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMH12</v>
+        <v>B00NBOMHFI</v>
       </c>
       <c r="C678" s="11" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B679" s="10" t="str">
+        <v>1775</v>
+      </c>
+      <c r="B679" s="23" t="str">
         <f>VLOOKUP(A679,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMGMC</v>
+        <v>B00P9BWFB2</v>
       </c>
       <c r="C679" s="11" t="s">
-        <v>1098</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B680" s="10" t="str">
+        <v>1777</v>
+      </c>
+      <c r="B680" s="23" t="str">
         <f>VLOOKUP(A680,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMHFI</v>
+        <v>B00P9BX15Q</v>
       </c>
       <c r="C680" s="11" t="s">
-        <v>1101</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="11" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B681" s="25" t="str">
+        <v>1777</v>
+      </c>
+      <c r="B681" s="23" t="str">
         <f>VLOOKUP(A681,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BWFB2</v>
+        <v>B00P9BX15Q</v>
       </c>
       <c r="C681" s="11" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="11" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B682" s="25" t="str">
+        <v>1779</v>
+      </c>
+      <c r="B682" s="23" t="str">
         <f>VLOOKUP(A682,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX15Q</v>
+        <v>B00P9BX1WY</v>
       </c>
       <c r="C682" s="11" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="11" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B683" s="25" t="str">
+        <v>1779</v>
+      </c>
+      <c r="B683" s="23" t="str">
         <f>VLOOKUP(A683,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX15Q</v>
+        <v>B00P9BX1WY</v>
       </c>
       <c r="C683" s="11" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="11" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B684" s="25" t="str">
+        <v>1104</v>
+      </c>
+      <c r="B684" s="10" t="str">
         <f>VLOOKUP(A684,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX1WY</v>
+        <v>B00NBOMGW2</v>
       </c>
       <c r="C684" s="11" t="s">
-        <v>1780</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="11" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B685" s="25" t="str">
+        <v>1107</v>
+      </c>
+      <c r="B685" s="10" t="str">
         <f>VLOOKUP(A685,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX1WY</v>
+        <v>B00NEHSZ08</v>
       </c>
       <c r="C685" s="11" t="s">
-        <v>1780</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="11" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="B686" s="10" t="str">
         <f>VLOOKUP(A686,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMGW2</v>
+        <v>B00NBOMLPO</v>
       </c>
       <c r="C686" s="11" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="11" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="B687" s="10" t="str">
         <f>VLOOKUP(A687,MAIN!A:D,4,FALSE)</f>
-        <v>B00NEHSZ08</v>
+        <v>B00NBOMKOG</v>
       </c>
       <c r="C687" s="11" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="11" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="B688" s="10" t="str">
         <f>VLOOKUP(A688,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMLPO</v>
+        <v>B00NBOMKS2</v>
       </c>
       <c r="C688" s="11" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="11" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B689" s="10" t="str">
+        <v>1781</v>
+      </c>
+      <c r="B689" s="23" t="str">
         <f>VLOOKUP(A689,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMKOG</v>
+        <v>B00P9BX29G</v>
       </c>
       <c r="C689" s="11" t="s">
-        <v>1113</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="11" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B690" s="10" t="str">
+        <v>1781</v>
+      </c>
+      <c r="B690" s="23" t="str">
         <f>VLOOKUP(A690,MAIN!A:D,4,FALSE)</f>
-        <v>B00NBOMKS2</v>
+        <v>B00P9BX29G</v>
       </c>
       <c r="C690" s="11" t="s">
-        <v>1116</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="11" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B691" s="25" t="str">
+        <v>1783</v>
+      </c>
+      <c r="B691" s="23" t="str">
         <f>VLOOKUP(A691,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX29G</v>
+        <v>B00P9BX1YC</v>
       </c>
       <c r="C691" s="11" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="11" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B692" s="25" t="str">
+        <v>1783</v>
+      </c>
+      <c r="B692" s="23" t="str">
         <f>VLOOKUP(A692,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX29G</v>
+        <v>B00P9BX1YC</v>
       </c>
       <c r="C692" s="11" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="11" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B693" s="25" t="str">
+        <v>1785</v>
+      </c>
+      <c r="B693" s="23" t="str">
         <f>VLOOKUP(A693,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX1YC</v>
+        <v>B00P9BX24G</v>
       </c>
       <c r="C693" s="11" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="11" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B694" s="25" t="str">
+        <v>1785</v>
+      </c>
+      <c r="B694" s="23" t="str">
         <f>VLOOKUP(A694,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX1YC</v>
+        <v>B00P9BX24G</v>
       </c>
       <c r="C694" s="11" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="11" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B695" s="25" t="str">
+        <v>1119</v>
+      </c>
+      <c r="B695" s="10">
         <f>VLOOKUP(A695,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX24G</v>
+        <v>0</v>
       </c>
       <c r="C695" s="11" t="s">
-        <v>1786</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="11" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B696" s="25" t="str">
+        <v>1121</v>
+      </c>
+      <c r="B696" s="10">
         <f>VLOOKUP(A696,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BX24G</v>
+        <v>0</v>
       </c>
       <c r="C696" s="11" t="s">
-        <v>1786</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="11" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B697" s="10">
         <f>VLOOKUP(A697,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C697" s="11" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="11" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B698" s="10">
         <f>VLOOKUP(A698,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C698" s="11" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="11" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B699" s="10">
         <f>VLOOKUP(A699,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C699" s="11" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="11" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B700" s="10">
         <f>VLOOKUP(A700,MAIN!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C700" s="11" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="11" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B701" s="10">
+        <v>1787</v>
+      </c>
+      <c r="B701" s="23" t="str">
         <f>VLOOKUP(A701,MAIN!A:D,4,FALSE)</f>
-        <v>0</v>
+        <v>B00P9BRK1M</v>
       </c>
       <c r="C701" s="11" t="s">
-        <v>1127</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="11" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B702" s="10">
+        <v>1787</v>
+      </c>
+      <c r="B702" s="23" t="str">
         <f>VLOOKUP(A702,MAIN!A:D,4,FALSE)</f>
-        <v>0</v>
+        <v>B00P9BRK1M</v>
       </c>
       <c r="C702" s="11" t="s">
-        <v>1129</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="11" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B703" s="25" t="str">
+        <v>1789</v>
+      </c>
+      <c r="B703" s="23" t="str">
         <f>VLOOKUP(A703,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BRK1M</v>
+        <v>B00P9BRKG2</v>
       </c>
       <c r="C703" s="11" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="11" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B704" s="25" t="str">
+        <v>1789</v>
+      </c>
+      <c r="B704" s="23" t="str">
         <f>VLOOKUP(A704,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BRK1M</v>
+        <v>B00P9BRKG2</v>
       </c>
       <c r="C704" s="11" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="11" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B705" s="25" t="str">
+        <v>1131</v>
+      </c>
+      <c r="B705" s="10" t="str">
         <f>VLOOKUP(A705,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BRKG2</v>
+        <v>B00EBN9QHK</v>
       </c>
       <c r="C705" s="11" t="s">
-        <v>1790</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="11" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B706" s="25" t="str">
+        <v>1134</v>
+      </c>
+      <c r="B706" s="10" t="str">
         <f>VLOOKUP(A706,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BRKG2</v>
+        <v>B00EBN9TGI</v>
       </c>
       <c r="C706" s="11" t="s">
-        <v>1790</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="11" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="B707" s="10" t="str">
         <f>VLOOKUP(A707,MAIN!A:D,4,FALSE)</f>
-        <v>B00EBN9QHK</v>
+        <v>B00EBN9TS6</v>
       </c>
       <c r="C707" s="11" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="11" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="B708" s="10" t="str">
         <f>VLOOKUP(A708,MAIN!A:D,4,FALSE)</f>
-        <v>B00EBN9TGI</v>
+        <v>B00EBN9U1W</v>
       </c>
       <c r="C708" s="11" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="11" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="B709" s="10" t="str">
         <f>VLOOKUP(A709,MAIN!A:D,4,FALSE)</f>
-        <v>B00EBN9TS6</v>
+        <v>B00EBN9UAS</v>
       </c>
       <c r="C709" s="11" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="11" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="B710" s="10" t="str">
         <f>VLOOKUP(A710,MAIN!A:D,4,FALSE)</f>
-        <v>B00EBN9U1W</v>
+        <v>B00EBN9UJY</v>
       </c>
       <c r="C710" s="11" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="11" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="B711" s="10" t="str">
         <f>VLOOKUP(A711,MAIN!A:D,4,FALSE)</f>
-        <v>B00EBN9UAS</v>
+        <v>B00EBN9VS4</v>
       </c>
       <c r="C711" s="11" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="11" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B712" s="10" t="str">
+        <v>1152</v>
+      </c>
+      <c r="B712" s="24" t="str">
         <f>VLOOKUP(A712,MAIN!A:D,4,FALSE)</f>
-        <v>B00EBN9UJY</v>
+        <v>B00EBN9W06</v>
       </c>
       <c r="C712" s="11" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="11" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B713" s="10" t="str">
+        <v>1791</v>
+      </c>
+      <c r="B713" s="23" t="str">
         <f>VLOOKUP(A713,MAIN!A:D,4,FALSE)</f>
-        <v>B00EBN9VS4</v>
+        <v>B00P9BUXCU</v>
       </c>
       <c r="C713" s="11" t="s">
-        <v>1149</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="11" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B714" s="26" t="str">
+        <v>1791</v>
+      </c>
+      <c r="B714" s="24" t="str">
         <f>VLOOKUP(A714,MAIN!A:D,4,FALSE)</f>
-        <v>B00EBN9W06</v>
+        <v>B00P9BUXCU</v>
       </c>
       <c r="C714" s="11" t="s">
-        <v>1152</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="11" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B715" s="25" t="str">
+        <v>1793</v>
+      </c>
+      <c r="B715" s="23" t="str">
         <f>VLOOKUP(A715,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUXCU</v>
+        <v>B00P9BUW3A</v>
       </c>
       <c r="C715" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="11" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B716" s="26" t="str">
+        <v>1793</v>
+      </c>
+      <c r="B716" s="24" t="str">
         <f>VLOOKUP(A716,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUXCU</v>
+        <v>B00P9BUW3A</v>
       </c>
       <c r="C716" s="11" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="11" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B717" s="25" t="str">
+        <v>1795</v>
+      </c>
+      <c r="B717" s="23" t="str">
         <f>VLOOKUP(A717,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUW3A</v>
+        <v>B00P9BUX2K</v>
       </c>
       <c r="C717" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="11" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B718" s="26" t="str">
+        <v>1795</v>
+      </c>
+      <c r="B718" s="24" t="str">
         <f>VLOOKUP(A718,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUW3A</v>
+        <v>B00P9BUX2K</v>
       </c>
       <c r="C718" s="11" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="11" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B719" s="25" t="str">
+        <v>1797</v>
+      </c>
+      <c r="B719" s="24" t="str">
         <f>VLOOKUP(A719,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUX2K</v>
+        <v>B00P9BUW9O</v>
       </c>
       <c r="C719" s="11" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="11" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B720" s="26" t="str">
+        <v>1797</v>
+      </c>
+      <c r="B720" s="24" t="str">
         <f>VLOOKUP(A720,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUX2K</v>
+        <v>B00P9BUW9O</v>
       </c>
       <c r="C720" s="11" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="11" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B721" s="26" t="str">
+        <v>1799</v>
+      </c>
+      <c r="B721" s="24" t="str">
         <f>VLOOKUP(A721,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUW9O</v>
+        <v>B00P9BUWL2</v>
       </c>
       <c r="C721" s="11" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="11" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B722" s="26" t="str">
+        <v>1799</v>
+      </c>
+      <c r="B722" s="24" t="str">
         <f>VLOOKUP(A722,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUW9O</v>
+        <v>B00P9BUWL2</v>
       </c>
       <c r="C722" s="11" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="11" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B723" s="26" t="str">
+        <v>1801</v>
+      </c>
+      <c r="B723" s="24" t="str">
         <f>VLOOKUP(A723,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUWL2</v>
+        <v>B00P9BV4OG</v>
       </c>
       <c r="C723" s="11" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="11" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B724" s="26" t="str">
+        <v>1801</v>
+      </c>
+      <c r="B724" s="24" t="str">
         <f>VLOOKUP(A724,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BUWL2</v>
+        <v>B00P9BV4OG</v>
       </c>
       <c r="C724" s="11" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="11" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B725" s="26" t="str">
+        <v>1155</v>
+      </c>
+      <c r="B725" s="10" t="str">
         <f>VLOOKUP(A725,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BV4OG</v>
+        <v>B00E3UU3GY</v>
       </c>
       <c r="C725" s="11" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A726" s="11" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B726" s="26" t="str">
+      <c r="A726" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B726" s="10" t="str">
         <f>VLOOKUP(A726,MAIN!A:D,4,FALSE)</f>
-        <v>B00P9BV4OG</v>
+        <v>B00CGEV2Y6</v>
       </c>
       <c r="C726" s="11" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A727" s="11" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B727" s="10" t="str">
+      <c r="A727" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B727" s="23" t="str">
         <f>VLOOKUP(A727,MAIN!A:D,4,FALSE)</f>
-        <v>B00E3UU3GY</v>
+        <v>B00N2UURA8</v>
       </c>
       <c r="C727" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B728" s="10" t="str">
+        <v>1481</v>
+      </c>
+      <c r="B728" s="23" t="str">
         <f>VLOOKUP(A728,MAIN!A:D,4,FALSE)</f>
-        <v>B00CGEV2Y6</v>
+        <v>B00N2UUSXE</v>
       </c>
       <c r="C728" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B729" s="25" t="str">
+        <v>1161</v>
+      </c>
+      <c r="B729" s="10" t="str">
         <f>VLOOKUP(A729,MAIN!A:D,4,FALSE)</f>
-        <v>B00N2UURA8</v>
+        <v>B00MGUJGNE</v>
       </c>
       <c r="C729" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="3" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B730" s="25" t="str">
+        <v>1164</v>
+      </c>
+      <c r="B730" s="10" t="str">
         <f>VLOOKUP(A730,MAIN!A:D,4,FALSE)</f>
-        <v>B00N2UUSXE</v>
+        <v>B00M79BWGI</v>
       </c>
       <c r="C730" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="B731" s="10" t="str">
         <f>VLOOKUP(A731,MAIN!A:D,4,FALSE)</f>
-        <v>B00MGUJGNE</v>
+        <v>B00M79RB5Y</v>
       </c>
       <c r="C731" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="3" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="B732" s="10" t="str">
         <f>VLOOKUP(A732,MAIN!A:D,4,FALSE)</f>
-        <v>B00M79BWGI</v>
+        <v>B00M79VHE0</v>
       </c>
       <c r="C732" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="B733" s="10" t="str">
         <f>VLOOKUP(A733,MAIN!A:D,4,FALSE)</f>
-        <v>B00M79RB5Y</v>
+        <v>B00M7A6P5K</v>
       </c>
       <c r="C733" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="B734" s="10" t="str">
         <f>VLOOKUP(A734,MAIN!A:D,4,FALSE)</f>
-        <v>B00M79VHE0</v>
+        <v>B00MGUJJHW</v>
       </c>
       <c r="C734" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="3" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="B735" s="10" t="str">
         <f>VLOOKUP(A735,MAIN!A:D,4,FALSE)</f>
-        <v>B00M7A6P5K</v>
+        <v>B00MGUJJ7C</v>
       </c>
       <c r="C735" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="B736" s="10" t="str">
         <f>VLOOKUP(A736,MAIN!A:D,4,FALSE)</f>
-        <v>B00MGUJJHW</v>
+        <v>B00MGUJJ2M</v>
       </c>
       <c r="C736" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="B737" s="10" t="str">
         <f>VLOOKUP(A737,MAIN!A:D,4,FALSE)</f>
-        <v>B00MGUJJ7C</v>
+        <v>B00MGUJJFE</v>
       </c>
       <c r="C737" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="3" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="B738" s="10" t="str">
         <f>VLOOKUP(A738,MAIN!A:D,4,FALSE)</f>
-        <v>B00MGUJJ2M</v>
+        <v>B00MGUJN00</v>
       </c>
       <c r="C738" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="3" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="B739" s="10" t="str">
         <f>VLOOKUP(A739,MAIN!A:D,4,FALSE)</f>
-        <v>B00MGUJJFE</v>
+        <v>B00MGUQOK2</v>
       </c>
       <c r="C739" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B740" s="10" t="str">
+        <v>1497</v>
+      </c>
+      <c r="B740" s="23" t="str">
         <f>VLOOKUP(A740,MAIN!A:D,4,FALSE)</f>
-        <v>B00MGUJN00</v>
+        <v>B00SX7NMP2</v>
       </c>
       <c r="C740" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B741" s="10" t="str">
+        <v>1499</v>
+      </c>
+      <c r="B741" s="23" t="str">
         <f>VLOOKUP(A741,MAIN!A:D,4,FALSE)</f>
-        <v>B00MGUQOK2</v>
+        <v>B00SX7NU6S</v>
       </c>
       <c r="C741" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B742" s="25" t="str">
+        <v>1501</v>
+      </c>
+      <c r="B742" s="23" t="str">
         <f>VLOOKUP(A742,MAIN!A:D,4,FALSE)</f>
-        <v>B00SX7NMP2</v>
+        <v>B00SX7NWLG</v>
       </c>
       <c r="C742" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B743" s="25" t="str">
+        <v>1507</v>
+      </c>
+      <c r="B743" s="23" t="str">
         <f>VLOOKUP(A743,MAIN!A:D,4,FALSE)</f>
-        <v>B00SX7NU6S</v>
+        <v>B00V4AS822</v>
       </c>
       <c r="C743" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B744" s="25" t="str">
+        <v>1509</v>
+      </c>
+      <c r="B744" s="23" t="str">
         <f>VLOOKUP(A744,MAIN!A:D,4,FALSE)</f>
-        <v>B00SX7NWLG</v>
+        <v>B00V4ASAMA</v>
       </c>
       <c r="C744" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="3" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B745" s="25" t="str">
+        <v>1503</v>
+      </c>
+      <c r="B745" s="23" t="str">
         <f>VLOOKUP(A745,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AS822</v>
+        <v>B00SX7NYNC</v>
       </c>
       <c r="C745" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B746" s="25" t="str">
+        <v>1505</v>
+      </c>
+      <c r="B746" s="23" t="str">
         <f>VLOOKUP(A746,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASAMA</v>
+        <v>B00SX7NZNQ</v>
       </c>
       <c r="C746" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="3" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B747" s="25" t="str">
+        <v>1483</v>
+      </c>
+      <c r="B747" s="23" t="str">
         <f>VLOOKUP(A747,MAIN!A:D,4,FALSE)</f>
-        <v>B00SX7NYNC</v>
+        <v>B00U433PRI</v>
       </c>
       <c r="C747" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B748" s="25" t="str">
+        <v>1485</v>
+      </c>
+      <c r="B748" s="23" t="str">
         <f>VLOOKUP(A748,MAIN!A:D,4,FALSE)</f>
-        <v>B00SX7NZNQ</v>
+        <v>B00U433QIQ</v>
       </c>
       <c r="C748" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="3" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B749" s="25" t="str">
+        <v>1487</v>
+      </c>
+      <c r="B749" s="23" t="str">
         <f>VLOOKUP(A749,MAIN!A:D,4,FALSE)</f>
-        <v>B00U433PRI</v>
+        <v>B00U433SO8</v>
       </c>
       <c r="C749" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B750" s="25" t="str">
+        <v>1489</v>
+      </c>
+      <c r="B750" s="23" t="str">
         <f>VLOOKUP(A750,MAIN!A:D,4,FALSE)</f>
-        <v>B00U433QIQ</v>
+        <v>B00U433U64</v>
       </c>
       <c r="C750" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="3" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B751" s="25" t="str">
+        <v>1491</v>
+      </c>
+      <c r="B751" s="23" t="str">
         <f>VLOOKUP(A751,MAIN!A:D,4,FALSE)</f>
-        <v>B00U433SO8</v>
+        <v>B00U433VC2</v>
       </c>
       <c r="C751" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B752" s="25" t="str">
+        <v>1493</v>
+      </c>
+      <c r="B752" s="23" t="str">
         <f>VLOOKUP(A752,MAIN!A:D,4,FALSE)</f>
-        <v>B00U433U64</v>
+        <v>B00U433X20</v>
       </c>
       <c r="C752" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A753" s="3" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B753" s="25" t="str">
+      <c r="A753" s="11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B753" s="23" t="str">
         <f>VLOOKUP(A753,MAIN!A:D,4,FALSE)</f>
-        <v>B00U433VC2</v>
+        <v>B00V4ASFR0</v>
       </c>
       <c r="C753" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A754" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B754" s="25" t="str">
+      <c r="A754" s="11" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B754" s="23" t="str">
         <f>VLOOKUP(A754,MAIN!A:D,4,FALSE)</f>
-        <v>B00U433X20</v>
+        <v>B00UDAU0KW</v>
       </c>
       <c r="C754" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A755" s="11" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B755" s="25" t="str">
+      <c r="A755" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B755" s="23" t="str">
         <f>VLOOKUP(A755,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASFR0</v>
+        <v>B00V4ASGTM</v>
       </c>
       <c r="C755" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="11" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B756" s="25" t="str">
+        <v>1579</v>
+      </c>
+      <c r="B756" s="23" t="str">
         <f>VLOOKUP(A756,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDAU0KW</v>
+        <v>B00V4ASIEK</v>
       </c>
       <c r="C756" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A757" s="3" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B757" s="25" t="str">
+      <c r="A757" s="11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B757" s="23" t="str">
         <f>VLOOKUP(A757,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASGTM</v>
+        <v>B00V4ARNZA</v>
       </c>
       <c r="C757" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="11" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B758" s="25" t="str">
+        <v>1583</v>
+      </c>
+      <c r="B758" s="23" t="str">
         <f>VLOOKUP(A758,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASIEK</v>
+        <v>B00V4ASKBQ</v>
       </c>
       <c r="C758" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="11" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B759" s="25" t="str">
+        <v>1515</v>
+      </c>
+      <c r="B759" s="23" t="str">
         <f>VLOOKUP(A759,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ARNZA</v>
+        <v>B00V4ASNR2</v>
       </c>
       <c r="C759" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="11" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B760" s="25" t="str">
+        <v>1517</v>
+      </c>
+      <c r="B760" s="23" t="str">
         <f>VLOOKUP(A760,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASKBQ</v>
+        <v>B00V4ASPH0</v>
       </c>
       <c r="C760" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="11" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B761" s="25" t="str">
+        <v>1519</v>
+      </c>
+      <c r="B761" s="23" t="str">
         <f>VLOOKUP(A761,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASNR2</v>
+        <v>B00V4ASR0A</v>
       </c>
       <c r="C761" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="11" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B762" s="25" t="str">
+        <v>1521</v>
+      </c>
+      <c r="B762" s="23" t="str">
         <f>VLOOKUP(A762,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASPH0</v>
+        <v>B00V4ASSHM</v>
       </c>
       <c r="C762" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="11" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B763" s="25" t="str">
+        <v>1523</v>
+      </c>
+      <c r="B763" s="23" t="str">
         <f>VLOOKUP(A763,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASR0A</v>
+        <v>B00V4ASTV2</v>
       </c>
       <c r="C763" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="11" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B764" s="25" t="str">
+        <v>1525</v>
+      </c>
+      <c r="B764" s="23" t="str">
         <f>VLOOKUP(A764,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASSHM</v>
+        <v>B00V4ASVT2</v>
       </c>
       <c r="C764" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="11" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B765" s="25" t="str">
+        <v>1527</v>
+      </c>
+      <c r="B765" s="23" t="str">
         <f>VLOOKUP(A765,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASTV2</v>
+        <v>B00V4ASXJK</v>
       </c>
       <c r="C765" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="11" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B766" s="25" t="str">
+        <v>1529</v>
+      </c>
+      <c r="B766" s="23" t="str">
         <f>VLOOKUP(A766,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASVT2</v>
+        <v>B00V4ASYZI</v>
       </c>
       <c r="C766" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A767" s="11" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B767" s="25" t="str">
+      <c r="A767" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B767" s="23" t="str">
         <f>VLOOKUP(A767,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASXJK</v>
+        <v>B00U66TI4W</v>
       </c>
       <c r="C767" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="11" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B768" s="25" t="str">
+        <v>1531</v>
+      </c>
+      <c r="B768" s="23" t="str">
         <f>VLOOKUP(A768,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ASYZI</v>
+        <v>B00UDAVLGO</v>
       </c>
       <c r="C768" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A769" s="3" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B769" s="25" t="str">
+      <c r="A769" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B769" s="23" t="str">
         <f>VLOOKUP(A769,MAIN!A:D,4,FALSE)</f>
-        <v>B00U66TI4W</v>
+        <v>B00UDAVPUQ</v>
       </c>
       <c r="C769" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="11" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B770" s="25" t="str">
+        <v>1535</v>
+      </c>
+      <c r="B770" s="23" t="str">
         <f>VLOOKUP(A770,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDAVLGO</v>
+        <v>B00UDAVW04</v>
       </c>
       <c r="C770" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="11" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B771" s="25" t="str">
+        <v>1537</v>
+      </c>
+      <c r="B771" s="23" t="str">
         <f>VLOOKUP(A771,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDAVPUQ</v>
+        <v>B00UDAW172</v>
       </c>
       <c r="C771" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="11" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B772" s="25" t="str">
+        <v>1585</v>
+      </c>
+      <c r="B772" s="23" t="str">
         <f>VLOOKUP(A772,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDAVW04</v>
+        <v>B00UDB17CQ</v>
       </c>
       <c r="C772" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="11" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B773" s="25" t="str">
+        <v>1539</v>
+      </c>
+      <c r="B773" s="23" t="str">
         <f>VLOOKUP(A773,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDAW172</v>
+        <v>B00UDAW59G</v>
       </c>
       <c r="C773" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="11" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B774" s="25" t="str">
+        <v>1541</v>
+      </c>
+      <c r="B774" s="23" t="str">
         <f>VLOOKUP(A774,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDB17CQ</v>
+        <v>B00V4AS2M8</v>
       </c>
       <c r="C774" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="11" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B775" s="25" t="str">
+        <v>1543</v>
+      </c>
+      <c r="B775" s="23" t="str">
         <f>VLOOKUP(A775,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDAW59G</v>
+        <v>B00V4AS4DU</v>
       </c>
       <c r="C775" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="11" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B776" s="25" t="str">
+        <v>1545</v>
+      </c>
+      <c r="B776" s="23" t="str">
         <f>VLOOKUP(A776,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AS2M8</v>
+        <v>B00V4AS61A</v>
       </c>
       <c r="C776" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="11" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B777" s="25" t="str">
+        <v>1547</v>
+      </c>
+      <c r="B777" s="23" t="str">
         <f>VLOOKUP(A777,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AS4DU</v>
+        <v>B00UDB8ZK8</v>
       </c>
       <c r="C777" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="11" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B778" s="25" t="str">
+        <v>1549</v>
+      </c>
+      <c r="B778" s="23" t="str">
         <f>VLOOKUP(A778,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AS61A</v>
+        <v>B00UDB94C6</v>
       </c>
       <c r="C778" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="11" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B779" s="25" t="str">
+        <v>1551</v>
+      </c>
+      <c r="B779" s="23" t="str">
         <f>VLOOKUP(A779,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDB8ZK8</v>
+        <v>B00UDAM3LG</v>
       </c>
       <c r="C779" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="11" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B780" s="25" t="str">
+        <v>1553</v>
+      </c>
+      <c r="B780" s="23" t="str">
         <f>VLOOKUP(A780,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDB94C6</v>
+        <v>B00UDB9W6E</v>
       </c>
       <c r="C780" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="11" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B781" s="25" t="str">
+        <v>1555</v>
+      </c>
+      <c r="B781" s="23" t="str">
         <f>VLOOKUP(A781,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDAM3LG</v>
+        <v>B00UDBA0C4</v>
       </c>
       <c r="C781" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="11" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B782" s="25" t="str">
+        <v>1557</v>
+      </c>
+      <c r="B782" s="23" t="str">
         <f>VLOOKUP(A782,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDB9W6E</v>
+        <v>B00UDBA4B6</v>
       </c>
       <c r="C782" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="11" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B783" s="25" t="str">
+        <v>1559</v>
+      </c>
+      <c r="B783" s="23" t="str">
         <f>VLOOKUP(A783,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBA0C4</v>
+        <v>B00UDBAS26</v>
       </c>
       <c r="C783" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="11" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B784" s="25" t="str">
+        <v>1561</v>
+      </c>
+      <c r="B784" s="23" t="str">
         <f>VLOOKUP(A784,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBA4B6</v>
+        <v>B00UDBCJDW</v>
       </c>
       <c r="C784" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="11" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B785" s="25" t="str">
+        <v>1563</v>
+      </c>
+      <c r="B785" s="23" t="str">
         <f>VLOOKUP(A785,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBAS26</v>
+        <v>B00UDBCO5U</v>
       </c>
       <c r="C785" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="11" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B786" s="25" t="str">
+        <v>1565</v>
+      </c>
+      <c r="B786" s="23" t="str">
         <f>VLOOKUP(A786,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBCJDW</v>
+        <v>B00UDBCT4Q</v>
       </c>
       <c r="C786" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="11" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B787" s="25" t="str">
+        <v>1567</v>
+      </c>
+      <c r="B787" s="23" t="str">
         <f>VLOOKUP(A787,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBCO5U</v>
+        <v>B00UDBAW8Q</v>
       </c>
       <c r="C787" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="11" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B788" s="25" t="str">
+        <v>1569</v>
+      </c>
+      <c r="B788" s="23" t="str">
         <f>VLOOKUP(A788,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBCT4Q</v>
+        <v>B00UDBB0BO</v>
       </c>
       <c r="C788" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="11" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B789" s="25" t="str">
+        <v>1571</v>
+      </c>
+      <c r="B789" s="23" t="str">
         <f>VLOOKUP(A789,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBAW8Q</v>
+        <v>B00UDBB4K6</v>
       </c>
       <c r="C789" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="11" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B790" s="25" t="str">
+        <v>1573</v>
+      </c>
+      <c r="B790" s="23" t="str">
         <f>VLOOKUP(A790,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBB0BO</v>
+        <v>B00UDBBALO</v>
       </c>
       <c r="C790" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="11" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B791" s="25" t="str">
+        <v>1575</v>
+      </c>
+      <c r="B791" s="23" t="str">
         <f>VLOOKUP(A791,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBB4K6</v>
+        <v>B00UDBBET2</v>
       </c>
       <c r="C791" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="11" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B792" s="25" t="str">
+        <v>1194</v>
+      </c>
+      <c r="B792" s="10" t="str">
         <f>VLOOKUP(A792,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBBALO</v>
+        <v>B00CFJIOZM</v>
       </c>
       <c r="C792" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="11" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B793" s="25" t="str">
+        <v>1197</v>
+      </c>
+      <c r="B793" s="10" t="str">
         <f>VLOOKUP(A793,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDBBET2</v>
+        <v>B00CFJIQVE</v>
       </c>
       <c r="C793" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="11" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="B794" s="10" t="str">
         <f>VLOOKUP(A794,MAIN!A:D,4,FALSE)</f>
-        <v>B00CFJIOZM</v>
+        <v>B00CFJIRHC</v>
       </c>
       <c r="C794" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="11" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="B795" s="10" t="str">
         <f>VLOOKUP(A795,MAIN!A:D,4,FALSE)</f>
-        <v>B00CFJIQVE</v>
+        <v>B00CFJIF0G</v>
       </c>
       <c r="C795" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="11" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="B796" s="10" t="str">
         <f>VLOOKUP(A796,MAIN!A:D,4,FALSE)</f>
-        <v>B00CFJIRHC</v>
+        <v>B00CFJIG3M</v>
       </c>
       <c r="C796" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="11" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="B797" s="10" t="str">
         <f>VLOOKUP(A797,MAIN!A:D,4,FALSE)</f>
-        <v>B00CFJIF0G</v>
+        <v>B00CFJIGQY</v>
       </c>
       <c r="C797" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="11" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="B798" s="10" t="str">
         <f>VLOOKUP(A798,MAIN!A:D,4,FALSE)</f>
-        <v>B00CFJIG3M</v>
+        <v>B00CFJFI6A</v>
       </c>
       <c r="C798" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="11" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="B799" s="10" t="str">
         <f>VLOOKUP(A799,MAIN!A:D,4,FALSE)</f>
-        <v>B00CFJIGQY</v>
+        <v>B00E9Z2618</v>
       </c>
       <c r="C799" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="11" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="B800" s="10" t="str">
         <f>VLOOKUP(A800,MAIN!A:D,4,FALSE)</f>
-        <v>B00CFJFI6A</v>
+        <v>B00E9Z26VI</v>
       </c>
       <c r="C800" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="11" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B801" s="10" t="str">
         <f>VLOOKUP(A801,MAIN!A:D,4,FALSE)</f>
-        <v>B00E9Z2618</v>
+        <v>B00DP7EEQ6</v>
       </c>
       <c r="C801" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="802" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A802" s="11" t="s">
-        <v>1218</v>
+      <c r="A802" s="3" t="s">
+        <v>1223</v>
       </c>
       <c r="B802" s="10" t="str">
         <f>VLOOKUP(A802,MAIN!A:D,4,FALSE)</f>
-        <v>B00E9Z26VI</v>
-      </c>
-      <c r="C802" s="11" t="s">
-        <v>1805</v>
-      </c>
+        <v>B00DP7EEW0</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D802" s="3"/>
+      <c r="E802" s="3"/>
+      <c r="F802" s="3"/>
+      <c r="G802" s="3"/>
+      <c r="H802" s="3"/>
+      <c r="I802" s="3"/>
+      <c r="J802" s="3"/>
+      <c r="K802" s="3"/>
+      <c r="L802" s="3"/>
+      <c r="M802" s="3"/>
+      <c r="N802" s="3"/>
+      <c r="O802" s="3"/>
+      <c r="P802" s="3"/>
+      <c r="Q802" s="3"/>
+      <c r="R802" s="3"/>
+      <c r="S802" s="3"/>
+      <c r="T802" s="3"/>
+      <c r="U802" s="3"/>
+      <c r="V802" s="3"/>
+      <c r="W802" s="3"/>
+      <c r="X802" s="3"/>
+      <c r="Y802" s="3"/>
+      <c r="Z802" s="3"/>
     </row>
     <row r="803" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A803" s="11" t="s">
-        <v>1220</v>
+      <c r="A803" s="3" t="s">
+        <v>1226</v>
       </c>
       <c r="B803" s="10" t="str">
         <f>VLOOKUP(A803,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7EEQ6</v>
-      </c>
-      <c r="C803" s="11" t="s">
-        <v>1805</v>
-      </c>
+        <v>B00DJ5ID6G</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D803" s="3"/>
+      <c r="E803" s="3"/>
+      <c r="F803" s="3"/>
+      <c r="G803" s="3"/>
+      <c r="H803" s="3"/>
+      <c r="I803" s="3"/>
+      <c r="J803" s="3"/>
+      <c r="K803" s="3"/>
+      <c r="L803" s="3"/>
+      <c r="M803" s="3"/>
+      <c r="N803" s="3"/>
+      <c r="O803" s="3"/>
+      <c r="P803" s="3"/>
+      <c r="Q803" s="3"/>
+      <c r="R803" s="3"/>
+      <c r="S803" s="3"/>
+      <c r="T803" s="3"/>
+      <c r="U803" s="3"/>
+      <c r="V803" s="3"/>
+      <c r="W803" s="3"/>
+      <c r="X803" s="3"/>
+      <c r="Y803" s="3"/>
+      <c r="Z803" s="3"/>
     </row>
     <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="B804" s="10" t="str">
         <f>VLOOKUP(A804,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7EEW0</v>
+        <v>B00DJ5IGTA</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
@@ -27260,14 +27275,14 @@
     </row>
     <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="B805" s="10" t="str">
         <f>VLOOKUP(A805,MAIN!A:D,4,FALSE)</f>
-        <v>B00DJ5ID6G</v>
+        <v>B00H0L3RVQ</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
@@ -27295,14 +27310,14 @@
     </row>
     <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="B806" s="10" t="str">
         <f>VLOOKUP(A806,MAIN!A:D,4,FALSE)</f>
-        <v>B00DJ5IGTA</v>
+        <v>B00DJ5II4S</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
@@ -27330,14 +27345,14 @@
     </row>
     <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="B807" s="10" t="str">
         <f>VLOOKUP(A807,MAIN!A:D,4,FALSE)</f>
-        <v>B00H0L3RVQ</v>
+        <v>B00DJ5IJ6A</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
@@ -27365,14 +27380,14 @@
     </row>
     <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="B808" s="10" t="str">
         <f>VLOOKUP(A808,MAIN!A:D,4,FALSE)</f>
-        <v>B00DJ5II4S</v>
+        <v>B00DJ5IJWO</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
@@ -27400,14 +27415,14 @@
     </row>
     <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="B809" s="10" t="str">
         <f>VLOOKUP(A809,MAIN!A:D,4,FALSE)</f>
-        <v>B00DJ5IJ6A</v>
+        <v>B00DJ5IKN2</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
@@ -27435,14 +27450,14 @@
     </row>
     <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="B810" s="10" t="str">
         <f>VLOOKUP(A810,MAIN!A:D,4,FALSE)</f>
-        <v>B00DJ5IJWO</v>
+        <v>B00DP7DXRC</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
@@ -27470,14 +27485,14 @@
     </row>
     <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="B811" s="10" t="str">
         <f>VLOOKUP(A811,MAIN!A:D,4,FALSE)</f>
-        <v>B00DJ5IKN2</v>
+        <v>B00DP7DY12</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
@@ -27505,14 +27520,14 @@
     </row>
     <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="B812" s="10" t="str">
         <f>VLOOKUP(A812,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7DXRC</v>
+        <v>B00DP7DY9E</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
@@ -27540,14 +27555,14 @@
     </row>
     <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="B813" s="10" t="str">
         <f>VLOOKUP(A813,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7DY12</v>
+        <v>B00HYOVVYE</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
@@ -27575,14 +27590,14 @@
     </row>
     <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="B814" s="10" t="str">
         <f>VLOOKUP(A814,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7DY9E</v>
+        <v>B00HYOVWNE</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
@@ -27610,14 +27625,14 @@
     </row>
     <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="B815" s="10" t="str">
         <f>VLOOKUP(A815,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOVVYE</v>
+        <v>B00HYOVX7E</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
@@ -27645,14 +27660,14 @@
     </row>
     <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="B816" s="10" t="str">
         <f>VLOOKUP(A816,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOVWNE</v>
+        <v>B00HYOVY96</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
@@ -27680,14 +27695,14 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="B817" s="10" t="str">
         <f>VLOOKUP(A817,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOVX7E</v>
+        <v>B00HYOVYYQ</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
@@ -27715,14 +27730,14 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="B818" s="10" t="str">
         <f>VLOOKUP(A818,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOVY96</v>
+        <v>B00HYOVZCW</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
@@ -27750,14 +27765,14 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="B819" s="10" t="str">
         <f>VLOOKUP(A819,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOVYYQ</v>
+        <v>B00H0L3WG6</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
@@ -27785,14 +27800,14 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="B820" s="10" t="str">
         <f>VLOOKUP(A820,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOVZCW</v>
+        <v>B00HYOW0T4</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
@@ -27820,14 +27835,14 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="B821" s="10" t="str">
         <f>VLOOKUP(A821,MAIN!A:D,4,FALSE)</f>
-        <v>B00H0L3WG6</v>
+        <v>B00HYOW1KC</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
@@ -27855,14 +27870,14 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="B822" s="10" t="str">
         <f>VLOOKUP(A822,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOW0T4</v>
+        <v>B00HYOW274</v>
       </c>
       <c r="C822" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
@@ -27890,14 +27905,14 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="B823" s="10" t="str">
         <f>VLOOKUP(A823,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOW1KC</v>
+        <v>B00HYOW2QK</v>
       </c>
       <c r="C823" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
@@ -27925,14 +27940,14 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="B824" s="10" t="str">
         <f>VLOOKUP(A824,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOW274</v>
+        <v>B00HZMUDTO</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
@@ -27960,14 +27975,14 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="B825" s="10" t="str">
         <f>VLOOKUP(A825,MAIN!A:D,4,FALSE)</f>
-        <v>B00HYOW2QK</v>
+        <v>B00M3FF5DM</v>
       </c>
       <c r="C825" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
@@ -27995,14 +28010,14 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="B826" s="10" t="str">
         <f>VLOOKUP(A826,MAIN!A:D,4,FALSE)</f>
-        <v>B00HZMUDTO</v>
+        <v>B00M3FF6S6</v>
       </c>
       <c r="C826" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
@@ -28030,14 +28045,14 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="B827" s="10" t="str">
         <f>VLOOKUP(A827,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FF5DM</v>
+        <v>B00M3FFAF0</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
@@ -28065,14 +28080,14 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="B828" s="10" t="str">
         <f>VLOOKUP(A828,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FF6S6</v>
+        <v>B00M3FFBRW</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
@@ -28100,14 +28115,14 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="B829" s="10" t="str">
         <f>VLOOKUP(A829,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFAF0</v>
+        <v>B00M3FFDD4</v>
       </c>
       <c r="C829" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
@@ -28135,14 +28150,14 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="B830" s="10" t="str">
         <f>VLOOKUP(A830,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFBRW</v>
+        <v>B00M3FFEVA</v>
       </c>
       <c r="C830" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
@@ -28170,14 +28185,14 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="B831" s="10" t="str">
         <f>VLOOKUP(A831,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFDD4</v>
+        <v>B00M3FFGI6</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
@@ -28205,14 +28220,14 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="B832" s="10" t="str">
         <f>VLOOKUP(A832,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFEVA</v>
+        <v>B00M3FFIAC</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
@@ -28240,14 +28255,14 @@
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="B833" s="10" t="str">
         <f>VLOOKUP(A833,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFGI6</v>
+        <v>B00M3FFO6K</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
@@ -28275,14 +28290,14 @@
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="B834" s="10" t="str">
         <f>VLOOKUP(A834,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFIAC</v>
+        <v>B00M3FFQ0O</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
@@ -28310,14 +28325,14 @@
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="B835" s="10" t="str">
         <f>VLOOKUP(A835,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFO6K</v>
+        <v>B00M3FFS34</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
@@ -28345,14 +28360,14 @@
     </row>
     <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="B836" s="10" t="str">
         <f>VLOOKUP(A836,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFQ0O</v>
+        <v>B00M3FFTBK</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
@@ -28380,15 +28395,13 @@
     </row>
     <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="B837" s="10" t="str">
         <f>VLOOKUP(A837,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFS34</v>
-      </c>
-      <c r="C837" s="3" t="s">
-        <v>1805</v>
-      </c>
+        <v>B00M3FFUQO</v>
+      </c>
+      <c r="C837" s="3"/>
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
@@ -28415,15 +28428,13 @@
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="B838" s="10" t="str">
         <f>VLOOKUP(A838,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFTBK</v>
-      </c>
-      <c r="C838" s="3" t="s">
-        <v>1805</v>
-      </c>
+        <v>B00M3FFXZW</v>
+      </c>
+      <c r="C838" s="3"/>
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
@@ -28450,11 +28461,11 @@
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="B839" s="10" t="str">
         <f>VLOOKUP(A839,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFUQO</v>
+        <v>B00M3FFZIW</v>
       </c>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -28483,11 +28494,11 @@
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="B840" s="10" t="str">
         <f>VLOOKUP(A840,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFXZW</v>
+        <v>B00M3FG1AS</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -28516,11 +28527,11 @@
     </row>
     <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="B841" s="10" t="str">
         <f>VLOOKUP(A841,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FFZIW</v>
+        <v>B00M3FG3D8</v>
       </c>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -28549,11 +28560,11 @@
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="B842" s="10" t="str">
         <f>VLOOKUP(A842,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FG1AS</v>
+        <v>B00M3FG6IU</v>
       </c>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -28582,11 +28593,11 @@
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="B843" s="10" t="str">
         <f>VLOOKUP(A843,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FG3D8</v>
+        <v>B00M3FG7Z2</v>
       </c>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -28615,11 +28626,11 @@
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="B844" s="10" t="str">
         <f>VLOOKUP(A844,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FG6IU</v>
+        <v>B00M3FG9BY</v>
       </c>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -28648,11 +28659,11 @@
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="B845" s="10" t="str">
         <f>VLOOKUP(A845,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FG7Z2</v>
+        <v>B00M3FGAU4</v>
       </c>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -28681,11 +28692,11 @@
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="B846" s="10" t="str">
         <f>VLOOKUP(A846,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FG9BY</v>
+        <v>B00M3FGDJC</v>
       </c>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -28714,11 +28725,11 @@
     </row>
     <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
       <c r="B847" s="10" t="str">
         <f>VLOOKUP(A847,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FGAU4</v>
+        <v>B00M3FGERI</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -28747,11 +28758,11 @@
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="B848" s="10" t="str">
         <f>VLOOKUP(A848,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FGDJC</v>
+        <v>B00M3FGHTS</v>
       </c>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -28780,11 +28791,11 @@
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="B849" s="10" t="str">
         <f>VLOOKUP(A849,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FGERI</v>
+        <v>B00M3FGJ2S</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -28813,11 +28824,11 @@
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="B850" s="10" t="str">
         <f>VLOOKUP(A850,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FGHTS</v>
+        <v>B00M3FGL2G</v>
       </c>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -28846,13 +28857,15 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B851" s="10" t="str">
+        <v>1435</v>
+      </c>
+      <c r="B851" s="23" t="str">
         <f>VLOOKUP(A851,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FGJ2S</v>
-      </c>
-      <c r="C851" s="3"/>
+        <v>B00V4ATJ02</v>
+      </c>
+      <c r="C851" s="3" t="s">
+        <v>1804</v>
+      </c>
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
@@ -28879,13 +28892,15 @@
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B852" s="10" t="str">
+        <v>1437</v>
+      </c>
+      <c r="B852" s="23" t="str">
         <f>VLOOKUP(A852,MAIN!A:D,4,FALSE)</f>
-        <v>B00M3FGL2G</v>
-      </c>
-      <c r="C852" s="3"/>
+        <v>B00V4ATKSI</v>
+      </c>
+      <c r="C852" s="3" t="s">
+        <v>1804</v>
+      </c>
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
@@ -28912,14 +28927,14 @@
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B853" s="25" t="str">
+        <v>1439</v>
+      </c>
+      <c r="B853" s="23" t="str">
         <f>VLOOKUP(A853,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ATJ02</v>
+        <v>B00V4ATMCM</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
@@ -28947,14 +28962,14 @@
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B854" s="25" t="str">
+        <v>1441</v>
+      </c>
+      <c r="B854" s="23" t="str">
         <f>VLOOKUP(A854,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ATKSI</v>
+        <v>B00V4ATNV2</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
@@ -28982,14 +28997,14 @@
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B855" s="25" t="str">
+        <v>1443</v>
+      </c>
+      <c r="B855" s="23" t="str">
         <f>VLOOKUP(A855,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ATMCM</v>
+        <v>B00V4ATPEW</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
@@ -29017,14 +29032,14 @@
     </row>
     <row r="856" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B856" s="25" t="str">
+        <v>1445</v>
+      </c>
+      <c r="B856" s="23" t="str">
         <f>VLOOKUP(A856,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ATNV2</v>
+        <v>B00V4ATRJK</v>
       </c>
       <c r="C856" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
@@ -29052,14 +29067,14 @@
     </row>
     <row r="857" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B857" s="25" t="str">
+        <v>1447</v>
+      </c>
+      <c r="B857" s="23" t="str">
         <f>VLOOKUP(A857,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ATPEW</v>
+        <v>B00UDATU6W</v>
       </c>
       <c r="C857" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
@@ -29087,14 +29102,14 @@
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B858" s="25" t="str">
+        <v>1449</v>
+      </c>
+      <c r="B858" s="23" t="str">
         <f>VLOOKUP(A858,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ATRJK</v>
+        <v>B00V4ATX80</v>
       </c>
       <c r="C858" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
@@ -29122,14 +29137,14 @@
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B859" s="25" t="str">
+        <v>1451</v>
+      </c>
+      <c r="B859" s="23" t="str">
         <f>VLOOKUP(A859,MAIN!A:D,4,FALSE)</f>
-        <v>B00UDATU6W</v>
+        <v>B00V4ATYPW</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
@@ -29157,14 +29172,14 @@
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B860" s="25" t="str">
+        <v>1453</v>
+      </c>
+      <c r="B860" s="23" t="str">
         <f>VLOOKUP(A860,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ATX80</v>
+        <v>B00V4AU0UU</v>
       </c>
       <c r="C860" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
@@ -29192,14 +29207,14 @@
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" s="3" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B861" s="25" t="str">
+        <v>1455</v>
+      </c>
+      <c r="B861" s="23" t="str">
         <f>VLOOKUP(A861,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4ATYPW</v>
+        <v>B00V4AU2JY</v>
       </c>
       <c r="C861" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
@@ -29227,14 +29242,14 @@
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B862" s="25" t="str">
+        <v>1457</v>
+      </c>
+      <c r="B862" s="23" t="str">
         <f>VLOOKUP(A862,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AU0UU</v>
+        <v>B00V4AU4J2</v>
       </c>
       <c r="C862" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
@@ -29262,14 +29277,14 @@
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" s="3" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B863" s="25" t="str">
+        <v>1459</v>
+      </c>
+      <c r="B863" s="23" t="str">
         <f>VLOOKUP(A863,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AU2JY</v>
+        <v>B00V4AU64K</v>
       </c>
       <c r="C863" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
@@ -29297,14 +29312,14 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" s="3" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B864" s="25" t="str">
+        <v>1461</v>
+      </c>
+      <c r="B864" s="23" t="str">
         <f>VLOOKUP(A864,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AU4J2</v>
+        <v>B00V4AU86G</v>
       </c>
       <c r="C864" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
@@ -29332,14 +29347,14 @@
     </row>
     <row r="865" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B865" s="25" t="str">
+        <v>1463</v>
+      </c>
+      <c r="B865" s="23" t="str">
         <f>VLOOKUP(A865,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AU64K</v>
+        <v>B00V4AUAO6</v>
       </c>
       <c r="C865" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
@@ -29367,14 +29382,14 @@
     </row>
     <row r="866" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B866" s="25" t="str">
+        <v>1465</v>
+      </c>
+      <c r="B866" s="23" t="str">
         <f>VLOOKUP(A866,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AU86G</v>
+        <v>B00V7ZZM1E</v>
       </c>
       <c r="C866" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
@@ -29402,14 +29417,14 @@
     </row>
     <row r="867" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B867" s="25" t="str">
+        <v>1467</v>
+      </c>
+      <c r="B867" s="23" t="str">
         <f>VLOOKUP(A867,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AUAO6</v>
+        <v>B00V802XLU</v>
       </c>
       <c r="C867" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
@@ -29437,14 +29452,14 @@
     </row>
     <row r="868" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B868" s="25" t="str">
+        <v>1469</v>
+      </c>
+      <c r="B868" s="23" t="str">
         <f>VLOOKUP(A868,MAIN!A:D,4,FALSE)</f>
-        <v>B00V7ZZM1E</v>
+        <v>B00V4AUCHQ</v>
       </c>
       <c r="C868" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
@@ -29472,14 +29487,14 @@
     </row>
     <row r="869" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B869" s="25" t="str">
+        <v>1471</v>
+      </c>
+      <c r="B869" s="23" t="str">
         <f>VLOOKUP(A869,MAIN!A:D,4,FALSE)</f>
-        <v>B00V802XLU</v>
+        <v>B00V4AUEF6</v>
       </c>
       <c r="C869" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
@@ -29507,14 +29522,14 @@
     </row>
     <row r="870" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B870" s="25" t="str">
+        <v>1473</v>
+      </c>
+      <c r="B870" s="23" t="str">
         <f>VLOOKUP(A870,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AUCHQ</v>
+        <v>B00V4AUGKO</v>
       </c>
       <c r="C870" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
@@ -29542,14 +29557,14 @@
     </row>
     <row r="871" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A871" s="3" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B871" s="25" t="str">
+        <v>1475</v>
+      </c>
+      <c r="B871" s="23" t="str">
         <f>VLOOKUP(A871,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AUEF6</v>
+        <v>B00V4AUJHE</v>
       </c>
       <c r="C871" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
@@ -29577,14 +29592,14 @@
     </row>
     <row r="872" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A872" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B872" s="25" t="str">
+        <v>1477</v>
+      </c>
+      <c r="B872" s="23" t="str">
         <f>VLOOKUP(A872,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AUGKO</v>
+        <v>B00V4AULFE</v>
       </c>
       <c r="C872" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
@@ -29612,15 +29627,13 @@
     </row>
     <row r="873" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B873" s="25" t="str">
+        <v>1369</v>
+      </c>
+      <c r="B873" s="10" t="str">
         <f>VLOOKUP(A873,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AUJHE</v>
-      </c>
-      <c r="C873" s="3" t="s">
-        <v>1805</v>
-      </c>
+        <v>B00DP7E60U</v>
+      </c>
+      <c r="C873" s="3"/>
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
@@ -29647,15 +29660,13 @@
     </row>
     <row r="874" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B874" s="25" t="str">
+        <v>1372</v>
+      </c>
+      <c r="B874" s="10" t="str">
         <f>VLOOKUP(A874,MAIN!A:D,4,FALSE)</f>
-        <v>B00V4AULFE</v>
-      </c>
-      <c r="C874" s="3" t="s">
-        <v>1805</v>
-      </c>
+        <v>B00DP7E6D2</v>
+      </c>
+      <c r="C874" s="3"/>
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
@@ -29682,11 +29693,11 @@
     </row>
     <row r="875" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A875" s="3" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="B875" s="10" t="str">
         <f>VLOOKUP(A875,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E60U</v>
+        <v>B00DP7E6V4</v>
       </c>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -29715,11 +29726,11 @@
     </row>
     <row r="876" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A876" s="3" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="B876" s="10" t="str">
         <f>VLOOKUP(A876,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E6D2</v>
+        <v>B00DP7E7QI</v>
       </c>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -29748,11 +29759,11 @@
     </row>
     <row r="877" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A877" s="3" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="B877" s="10" t="str">
         <f>VLOOKUP(A877,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E6V4</v>
+        <v>B00GIZ0VM8</v>
       </c>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -29781,11 +29792,11 @@
     </row>
     <row r="878" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="B878" s="10" t="str">
         <f>VLOOKUP(A878,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E7QI</v>
+        <v>B00DP7E89E</v>
       </c>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -29814,11 +29825,11 @@
     </row>
     <row r="879" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="B879" s="10" t="str">
         <f>VLOOKUP(A879,MAIN!A:D,4,FALSE)</f>
-        <v>B00GIZ0VM8</v>
+        <v>B00DP7E8MQ</v>
       </c>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -29847,11 +29858,11 @@
     </row>
     <row r="880" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="B880" s="10" t="str">
         <f>VLOOKUP(A880,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E89E</v>
+        <v>B00DP7E8VM</v>
       </c>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -29880,11 +29891,11 @@
     </row>
     <row r="881" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A881" s="3" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="B881" s="10" t="str">
         <f>VLOOKUP(A881,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E8MQ</v>
+        <v>B00DP7E95W</v>
       </c>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -29913,11 +29924,11 @@
     </row>
     <row r="882" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A882" s="3" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="B882" s="10" t="str">
         <f>VLOOKUP(A882,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E8VM</v>
+        <v>B00DP7E9F2</v>
       </c>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -29946,11 +29957,11 @@
     </row>
     <row r="883" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A883" s="3" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="B883" s="10" t="str">
         <f>VLOOKUP(A883,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E95W</v>
+        <v>B00DP7E9JS</v>
       </c>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -29979,11 +29990,11 @@
     </row>
     <row r="884" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="B884" s="10" t="str">
         <f>VLOOKUP(A884,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E9F2</v>
+        <v>B00DP7E9QQ</v>
       </c>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -30012,11 +30023,11 @@
     </row>
     <row r="885" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A885" s="3" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="B885" s="10" t="str">
         <f>VLOOKUP(A885,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E9JS</v>
+        <v>B00CA7VBXQ</v>
       </c>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -30045,11 +30056,11 @@
     </row>
     <row r="886" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A886" s="3" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="B886" s="10" t="str">
         <f>VLOOKUP(A886,MAIN!A:D,4,FALSE)</f>
-        <v>B00DP7E9QQ</v>
+        <v>B00CA7YXTA</v>
       </c>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -30078,11 +30089,11 @@
     </row>
     <row r="887" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A887" s="3" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="B887" s="10" t="str">
         <f>VLOOKUP(A887,MAIN!A:D,4,FALSE)</f>
-        <v>B00CA7VBXQ</v>
+        <v>B00FNCIAPM</v>
       </c>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -30111,11 +30122,11 @@
     </row>
     <row r="888" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A888" s="3" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="B888" s="10" t="str">
         <f>VLOOKUP(A888,MAIN!A:D,4,FALSE)</f>
-        <v>B00CA7YXTA</v>
+        <v>B00CM8EDM4</v>
       </c>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -30144,11 +30155,11 @@
     </row>
     <row r="889" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A889" s="3" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="B889" s="10" t="str">
         <f>VLOOKUP(A889,MAIN!A:D,4,FALSE)</f>
-        <v>B00FNCIAPM</v>
+        <v>B00CM8EE9G</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -30177,11 +30188,11 @@
     </row>
     <row r="890" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A890" s="3" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="B890" s="10" t="str">
         <f>VLOOKUP(A890,MAIN!A:D,4,FALSE)</f>
-        <v>B00CM8EDM4</v>
+        <v>B00FNCIH28</v>
       </c>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -30210,11 +30221,11 @@
     </row>
     <row r="891" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A891" s="3" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="B891" s="10" t="str">
         <f>VLOOKUP(A891,MAIN!A:D,4,FALSE)</f>
-        <v>B00CM8EE9G</v>
+        <v>B00CM8EC84</v>
       </c>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -30243,11 +30254,11 @@
     </row>
     <row r="892" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A892" s="3" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="B892" s="10" t="str">
         <f>VLOOKUP(A892,MAIN!A:D,4,FALSE)</f>
-        <v>B00FNCIH28</v>
+        <v>B00CM8ECWA</v>
       </c>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -30275,70 +30286,14 @@
       <c r="Z892" s="3"/>
     </row>
     <row r="893" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A893" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B893" s="10" t="str">
-        <f>VLOOKUP(A893,MAIN!A:D,4,FALSE)</f>
-        <v>B00CM8EC84</v>
-      </c>
-      <c r="C893" s="3"/>
-      <c r="D893" s="3"/>
-      <c r="E893" s="3"/>
-      <c r="F893" s="3"/>
-      <c r="G893" s="3"/>
-      <c r="H893" s="3"/>
-      <c r="I893" s="3"/>
-      <c r="J893" s="3"/>
-      <c r="K893" s="3"/>
-      <c r="L893" s="3"/>
-      <c r="M893" s="3"/>
-      <c r="N893" s="3"/>
-      <c r="O893" s="3"/>
-      <c r="P893" s="3"/>
-      <c r="Q893" s="3"/>
-      <c r="R893" s="3"/>
-      <c r="S893" s="3"/>
-      <c r="T893" s="3"/>
-      <c r="U893" s="3"/>
-      <c r="V893" s="3"/>
-      <c r="W893" s="3"/>
-      <c r="X893" s="3"/>
-      <c r="Y893" s="3"/>
-      <c r="Z893" s="3"/>
+      <c r="A893" s="11"/>
+      <c r="B893" s="11"/>
+      <c r="C893" s="11"/>
     </row>
     <row r="894" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A894" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B894" s="10" t="str">
-        <f>VLOOKUP(A894,MAIN!A:D,4,FALSE)</f>
-        <v>B00CM8ECWA</v>
-      </c>
-      <c r="C894" s="3"/>
-      <c r="D894" s="3"/>
-      <c r="E894" s="3"/>
-      <c r="F894" s="3"/>
-      <c r="G894" s="3"/>
-      <c r="H894" s="3"/>
-      <c r="I894" s="3"/>
-      <c r="J894" s="3"/>
-      <c r="K894" s="3"/>
-      <c r="L894" s="3"/>
-      <c r="M894" s="3"/>
-      <c r="N894" s="3"/>
-      <c r="O894" s="3"/>
-      <c r="P894" s="3"/>
-      <c r="Q894" s="3"/>
-      <c r="R894" s="3"/>
-      <c r="S894" s="3"/>
-      <c r="T894" s="3"/>
-      <c r="U894" s="3"/>
-      <c r="V894" s="3"/>
-      <c r="W894" s="3"/>
-      <c r="X894" s="3"/>
-      <c r="Y894" s="3"/>
-      <c r="Z894" s="3"/>
+      <c r="A894" s="11"/>
+      <c r="B894" s="11"/>
+      <c r="C894" s="11"/>
     </row>
     <row r="895" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A895" s="11"/>
@@ -30860,16 +30815,6 @@
       <c r="B998" s="11"/>
       <c r="C998" s="11"/>
     </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A999" s="11"/>
-      <c r="B999" s="11"/>
-      <c r="C999" s="11"/>
-    </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1000" s="11"/>
-      <c r="B1000" s="11"/>
-      <c r="C1000" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
